--- a/proyecto/back/excel/archivo.xlsx
+++ b/proyecto/back/excel/archivo.xlsx
@@ -32,9 +32,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -399,42 +400,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <v>dato</v>
+        <v>marca_temporal</v>
       </c>
       <c r="B1" s="1" t="str">
-        <v>dato1</v>
+        <v>DNI</v>
       </c>
       <c r="C1" s="1" t="str">
-        <v>dato2</v>
+        <v>apellido</v>
       </c>
       <c r="D1" s="1" t="str">
-        <v>dato3</v>
+        <v>nombre</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <v>localidad</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <v>tiene_hermanos</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <v>telefono_alumno</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <v>apellido_tutor</v>
+      </c>
+      <c r="I1" s="1" t="str">
+        <v>nombre_tutor</v>
+      </c>
+      <c r="J1" s="1" t="str">
+        <v>telefono_tutor</v>
+      </c>
+      <c r="K1" s="1" t="str">
+        <v>telefono_tutor2</v>
+      </c>
+      <c r="L1" s="1" t="str">
+        <v>curso</v>
+      </c>
+      <c r="M1" s="1" t="str">
+        <v>establecimiento_anio_anterior</v>
+      </c>
+      <c r="N1" s="1" t="str">
+        <v>DNI_tutor</v>
+      </c>
+      <c r="O1" s="1" t="str">
+        <v>cuit_tutor</v>
+      </c>
+      <c r="P1" s="1" t="str">
+        <v>enfermedad_cronica</v>
+      </c>
+      <c r="Q1" s="1" t="str">
+        <v>cual_enfermedad</v>
+      </c>
+      <c r="R1" s="1" t="str">
+        <v>medicacion</v>
+      </c>
+      <c r="S1" s="1" t="str">
+        <v>cual_medicacion</v>
+      </c>
+      <c r="T1" s="1" t="str">
+        <v>correoElectronico</v>
+      </c>
+      <c r="U1" s="1" t="str">
+        <v>fecha_nacimiento</v>
+      </c>
+      <c r="V1" s="1" t="str">
+        <v>edad</v>
+      </c>
+      <c r="W1" s="1" t="str">
+        <v>lugar_nacimiento</v>
+      </c>
+      <c r="X1" s="1" t="str">
+        <v>nacionalidad</v>
+      </c>
+      <c r="Y1" s="1" t="str">
+        <v>domicilio</v>
+      </c>
+      <c r="Z1" s="1" t="str">
+        <v>barrio</v>
+      </c>
+      <c r="AA1" s="1" t="str">
+        <v>cod_postal</v>
+      </c>
+      <c r="AB1" s="1" t="str">
+        <v>materias_adeuda</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="str">
-        <v>4</v>
+        <v>iubfrve</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v>5</v>
+        <v>cdoi,cen</v>
       </c>
       <c r="D2" s="1" t="str">
-        <v>7</v>
+        <v>rhuefyn</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <v>iud f</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <v>3i4343</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <v>vfoi.ju,den</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <v>o dfin</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <v xml:space="preserve">doinf </v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <v>444444444444444</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <v>base de datos</v>
+      </c>
+      <c r="M2" s="1" t="str">
+        <v>este colegio</v>
+      </c>
+      <c r="N2" s="1" t="str">
+        <v>urrrr4</v>
+      </c>
+      <c r="O2" s="1" t="str">
+        <v>341093484</v>
+      </c>
+      <c r="P2" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q2" s="1" t="str">
+        <v>ninguna</v>
+      </c>
+      <c r="R2" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="S2" s="1" t="str">
+        <v>nignuna</v>
+      </c>
+      <c r="T2" s="1" t="str">
+        <v>roro@gmail.com</v>
+      </c>
+      <c r="U2" s="1" t="str">
+        <v>octubre</v>
+      </c>
+      <c r="V2" s="1" t="str">
+        <v>27</v>
+      </c>
+      <c r="W2" s="1" t="str">
+        <v>san martin</v>
+      </c>
+      <c r="X2" s="1" t="str">
+        <v>argentina</v>
+      </c>
+      <c r="Y2" s="1" t="str">
+        <v>constan</v>
+      </c>
+      <c r="Z2" s="1" t="str">
+        <v>eaviucn</v>
+      </c>
+      <c r="AA2" s="1" t="str">
+        <v>1669</v>
+      </c>
+      <c r="AB2" s="1" t="str">
+        <v>No</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AB2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/proyecto/back/excel/archivo.xlsx
+++ b/proyecto/back/excel/archivo.xlsx
@@ -553,10 +553,10 @@
         <v>roro@gmail.com</v>
       </c>
       <c r="U2" s="1" t="str">
-        <v>octubre</v>
+        <v>noviembre</v>
       </c>
       <c r="V2" s="1" t="str">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="W2" s="1" t="str">
         <v>san martin</v>

--- a/proyecto/back/excel/archivo.xlsx
+++ b/proyecto/back/excel/archivo.xlsx
@@ -32,10 +32,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -400,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -410,85 +409,94 @@
         <v>marca_temporal</v>
       </c>
       <c r="B1" s="1" t="str">
+        <v>foto</v>
+      </c>
+      <c r="C1" s="1" t="str">
         <v>DNI</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="D1" s="1" t="str">
         <v>apellido</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="E1" s="1" t="str">
         <v>nombre</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="F1" s="1" t="str">
         <v>localidad</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="G1" s="1" t="str">
         <v>tiene_hermanos</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="H1" s="1" t="str">
         <v>telefono_alumno</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="I1" s="1" t="str">
         <v>apellido_tutor</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="J1" s="1" t="str">
         <v>nombre_tutor</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="K1" s="1" t="str">
         <v>telefono_tutor</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="L1" s="1" t="str">
         <v>telefono_tutor2</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="M1" s="1" t="str">
         <v>curso</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="N1" s="1" t="str">
         <v>establecimiento_anio_anterior</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="O1" s="1" t="str">
         <v>DNI_tutor</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="P1" s="1" t="str">
         <v>cuit_tutor</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="Q1" s="1" t="str">
         <v>enfermedad_cronica</v>
       </c>
-      <c r="Q1" s="1" t="str">
+      <c r="R1" s="1" t="str">
         <v>cual_enfermedad</v>
       </c>
-      <c r="R1" s="1" t="str">
+      <c r="S1" s="1" t="str">
         <v>medicacion</v>
       </c>
-      <c r="S1" s="1" t="str">
+      <c r="T1" s="1" t="str">
         <v>cual_medicacion</v>
       </c>
-      <c r="T1" s="1" t="str">
+      <c r="U1" s="1" t="str">
         <v>correoElectronico</v>
       </c>
-      <c r="U1" s="1" t="str">
+      <c r="V1" s="1" t="str">
         <v>fecha_nacimiento</v>
       </c>
-      <c r="V1" s="1" t="str">
+      <c r="W1" s="1" t="str">
         <v>edad</v>
       </c>
-      <c r="W1" s="1" t="str">
+      <c r="X1" s="1" t="str">
         <v>lugar_nacimiento</v>
       </c>
-      <c r="X1" s="1" t="str">
+      <c r="Y1" s="1" t="str">
         <v>nacionalidad</v>
       </c>
-      <c r="Y1" s="1" t="str">
+      <c r="Z1" s="1" t="str">
         <v>domicilio</v>
       </c>
-      <c r="Z1" s="1" t="str">
+      <c r="AA1" s="1" t="str">
         <v>barrio</v>
       </c>
-      <c r="AA1" s="1" t="str">
+      <c r="AB1" s="1" t="str">
         <v>cod_postal</v>
       </c>
-      <c r="AB1" s="1" t="str">
+      <c r="AC1" s="1" t="str">
         <v>materias_adeuda</v>
+      </c>
+      <c r="AD1" s="1" t="str">
+        <v>adeuda_materias</v>
+      </c>
+      <c r="AE1" s="1" t="str">
+        <v>quien_aprobo</v>
       </c>
     </row>
     <row r="2">
@@ -496,90 +504,271 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="str">
+        <v>https://cdn.outsideonline.com/wp-content/uploads/2023/03/Funny_Dog_H.jpg?crop=16:9&amp;width=960&amp;enable=upscale&amp;quality=100</v>
+      </c>
+      <c r="C2" s="1" t="str">
         <v>iubfrve</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="D2" s="1" t="str">
         <v>cdoi,cen</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="E2" s="1" t="str">
         <v>rhuefyn</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="F2" s="1" t="str">
         <v>iud f</v>
       </c>
-      <c r="F2" s="1" t="str">
-        <v>No</v>
-      </c>
       <c r="G2" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2" s="1" t="str">
         <v>3i4343</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="I2" s="1" t="str">
         <v>vfoi.ju,den</v>
       </c>
-      <c r="I2" s="1" t="str">
+      <c r="J2" s="1" t="str">
         <v>o dfin</v>
       </c>
-      <c r="J2" s="1" t="str">
+      <c r="K2" s="1" t="str">
         <v xml:space="preserve">doinf </v>
       </c>
-      <c r="K2" s="1" t="str">
+      <c r="L2" s="1" t="str">
         <v>444444444444444</v>
       </c>
-      <c r="L2" s="1" t="str">
-        <v>base de datos</v>
-      </c>
       <c r="M2" s="1" t="str">
+        <v>matematica</v>
+      </c>
+      <c r="N2" s="1" t="str">
         <v>este colegio</v>
       </c>
-      <c r="N2" s="1" t="str">
+      <c r="O2" s="1" t="str">
         <v>urrrr4</v>
       </c>
-      <c r="O2" s="1" t="str">
+      <c r="P2" s="1" t="str">
         <v>341093484</v>
       </c>
-      <c r="P2" s="1" t="str">
-        <v>No</v>
-      </c>
       <c r="Q2" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="R2" s="1" t="str">
         <v>ninguna</v>
       </c>
-      <c r="R2" s="1" t="str">
-        <v>No</v>
-      </c>
       <c r="S2" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T2" s="1" t="str">
         <v>nignuna</v>
       </c>
-      <c r="T2" s="1" t="str">
+      <c r="U2" s="1" t="str">
         <v>roro@gmail.com</v>
       </c>
-      <c r="U2" s="1" t="str">
+      <c r="V2" s="1" t="str">
         <v>noviembre</v>
       </c>
-      <c r="V2" s="1" t="str">
+      <c r="W2" s="1" t="str">
         <v>69</v>
       </c>
-      <c r="W2" s="1" t="str">
+      <c r="X2" s="1" t="str">
         <v>san martin</v>
       </c>
-      <c r="X2" s="1" t="str">
+      <c r="Y2" s="1" t="str">
         <v>argentina</v>
       </c>
-      <c r="Y2" s="1" t="str">
+      <c r="Z2" s="1" t="str">
         <v>constan</v>
       </c>
-      <c r="Z2" s="1" t="str">
+      <c r="AA2" s="1" t="str">
         <v>eaviucn</v>
       </c>
-      <c r="AA2" s="1" t="str">
+      <c r="AB2" s="1" t="str">
         <v>1669</v>
       </c>
-      <c r="AB2" s="1" t="str">
+      <c r="AC2" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD2" s="1" t="str">
+        <v>ingles, matematica</v>
+      </c>
+      <c r="AE2" s="1" t="str">
+        <v>susana</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <v>perro</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <v>apellido</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <v>perro</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <v>iud f</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <v>3i4343</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <v>vfoi.ju,den</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <v>o dfin</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <v xml:space="preserve">doinf </v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <v>444444444444444</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <v>programacion</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <v>este colegio</v>
+      </c>
+      <c r="O3" s="1" t="str">
+        <v>urrrr4</v>
+      </c>
+      <c r="P3" s="1" t="str">
+        <v>341093484</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="R3" s="1" t="str">
+        <v>ninguna</v>
+      </c>
+      <c r="S3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T3" s="1" t="str">
+        <v>nignuna</v>
+      </c>
+      <c r="U3" s="1" t="str">
+        <v>roro@gmail.com</v>
+      </c>
+      <c r="V3" s="1" t="str">
+        <v>noviembre</v>
+      </c>
+      <c r="W3" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="X3" s="1" t="str">
+        <v>san martin</v>
+      </c>
+      <c r="Y3" s="1" t="str">
+        <v>argentina</v>
+      </c>
+      <c r="Z3" s="1" t="str">
+        <v>constan</v>
+      </c>
+      <c r="AA3" s="1" t="str">
+        <v>eaviucn</v>
+      </c>
+      <c r="AB3" s="1" t="str">
+        <v>1669</v>
+      </c>
+      <c r="AC3" s="1" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>123</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <v>cocina</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <v>gato</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <v>iud f</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <v>3i4343</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <v>vfoi.ju,den</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <v>o dfin</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <v xml:space="preserve">doinf </v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <v>444444444444444</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <v>matematica</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <v>este colegio</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <v>urrrr4</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <v>341093484</v>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="R4" s="1" t="str">
+        <v>ninguna</v>
+      </c>
+      <c r="S4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T4" s="1" t="str">
+        <v>nignuna</v>
+      </c>
+      <c r="U4" s="1" t="str">
+        <v>roro@gmail.com</v>
+      </c>
+      <c r="V4" s="1" t="str">
+        <v>noviembre</v>
+      </c>
+      <c r="W4" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="X4" s="1" t="str">
+        <v>san martin</v>
+      </c>
+      <c r="Y4" s="1" t="str">
+        <v>argentina</v>
+      </c>
+      <c r="Z4" s="1" t="str">
+        <v>constan</v>
+      </c>
+      <c r="AA4" s="1" t="str">
+        <v>eaviucn</v>
+      </c>
+      <c r="AB4" s="1" t="str">
+        <v>1669</v>
+      </c>
+      <c r="AC4" s="1" t="str">
         <v>No</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AB2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/proyecto/back/excel/archivo.xlsx
+++ b/proyecto/back/excel/archivo.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -577,9 +577,181 @@
         <v>No</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="B3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="C3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="I3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="J3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="K3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="L3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="M3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="N3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="O3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="P3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="R3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="S3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="T3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="U3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="V3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="W3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="X3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="Y3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="Z3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AA3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB3" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="B4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="C4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="I4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="J4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="K4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="L4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="M4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="N4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="O4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="P4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="R4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="S4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="T4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="U4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="V4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="W4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="X4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="Y4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="Z4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AA4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB4" s="1" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AB2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AB4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/proyecto/back/excel/archivo.xlsx
+++ b/proyecto/back/excel/archivo.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE10"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -500,20 +500,17 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>https://cdn.outsideonline.com/wp-content/uploads/2023/03/Funny_Dog_H.jpg?crop=16:9&amp;width=960&amp;enable=upscale&amp;quality=100</v>
+      <c r="A2" s="1">
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v>iubfrve</v>
+        <v>perro</v>
       </c>
       <c r="D2" s="1" t="str">
-        <v>cdoi,cen</v>
+        <v>apellido</v>
       </c>
       <c r="E2" s="1" t="str">
-        <v>rhuefyn</v>
+        <v>perro</v>
       </c>
       <c r="F2" s="1" t="str">
         <v>iud f</v>
@@ -537,7 +534,7 @@
         <v>444444444444444</v>
       </c>
       <c r="M2" s="1" t="str">
-        <v>matema</v>
+        <v>programacion</v>
       </c>
       <c r="N2" s="1" t="str">
         <v>este colegio</v>
@@ -573,7 +570,7 @@
         <v>san martin</v>
       </c>
       <c r="Y2" s="1" t="str">
-        <v>brazil</v>
+        <v>argentina</v>
       </c>
       <c r="Z2" s="1" t="str">
         <v>constan</v>
@@ -586,26 +583,20 @@
       </c>
       <c r="AC2" s="1" t="str">
         <v>No</v>
-      </c>
-      <c r="AD2" s="1" t="str">
-        <v>ingles, matematica</v>
-      </c>
-      <c r="AE2" s="1" t="str">
-        <v>susana</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>perro</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>123</v>
       </c>
       <c r="D3" s="1" t="str">
-        <v>apellido</v>
+        <v>cocina</v>
       </c>
       <c r="E3" s="1" t="str">
-        <v>perro</v>
+        <v>gato</v>
       </c>
       <c r="F3" s="1" t="str">
         <v>iud f</v>
@@ -629,7 +620,7 @@
         <v>444444444444444</v>
       </c>
       <c r="M3" s="1" t="str">
-        <v>programacion</v>
+        <v>matematica</v>
       </c>
       <c r="N3" s="1" t="str">
         <v>este colegio</v>
@@ -681,664 +672,103 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>123</v>
+      <c r="A4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="B4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="C4" s="1" t="str">
+        <v/>
       </c>
       <c r="D4" s="1" t="str">
-        <v>cocina</v>
+        <v/>
       </c>
       <c r="E4" s="1" t="str">
-        <v>gato</v>
+        <v/>
       </c>
       <c r="F4" s="1" t="str">
-        <v>iud f</v>
+        <v/>
       </c>
       <c r="G4" s="1" t="str">
-        <v>No</v>
+        <v/>
       </c>
       <c r="H4" s="1" t="str">
-        <v>3i4343</v>
+        <v/>
       </c>
       <c r="I4" s="1" t="str">
-        <v>vfoi.ju,den</v>
+        <v/>
       </c>
       <c r="J4" s="1" t="str">
-        <v>o dfin</v>
+        <v/>
       </c>
       <c r="K4" s="1" t="str">
-        <v xml:space="preserve">doinf </v>
+        <v/>
       </c>
       <c r="L4" s="1" t="str">
-        <v>444444444444444</v>
+        <v/>
       </c>
       <c r="M4" s="1" t="str">
-        <v>matematica</v>
+        <v/>
       </c>
       <c r="N4" s="1" t="str">
-        <v>este colegio</v>
+        <v/>
       </c>
       <c r="O4" s="1" t="str">
-        <v>urrrr4</v>
+        <v/>
       </c>
       <c r="P4" s="1" t="str">
-        <v>341093484</v>
+        <v/>
       </c>
       <c r="Q4" s="1" t="str">
-        <v>No</v>
+        <v/>
       </c>
       <c r="R4" s="1" t="str">
-        <v>ninguna</v>
+        <v/>
       </c>
       <c r="S4" s="1" t="str">
-        <v>No</v>
+        <v/>
       </c>
       <c r="T4" s="1" t="str">
-        <v>nignuna</v>
+        <v/>
       </c>
       <c r="U4" s="1" t="str">
-        <v>roro@gmail.com</v>
+        <v/>
       </c>
       <c r="V4" s="1" t="str">
-        <v>noviembre</v>
+        <v/>
       </c>
       <c r="W4" s="1" t="str">
-        <v>69</v>
+        <v/>
       </c>
       <c r="X4" s="1" t="str">
-        <v>san martin</v>
+        <v/>
       </c>
       <c r="Y4" s="1" t="str">
-        <v>argentina</v>
+        <v/>
       </c>
       <c r="Z4" s="1" t="str">
-        <v>constan</v>
+        <v/>
       </c>
       <c r="AA4" s="1" t="str">
-        <v>eaviucn</v>
+        <v/>
       </c>
       <c r="AB4" s="1" t="str">
-        <v>1669</v>
+        <v/>
       </c>
       <c r="AC4" s="1" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="C5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="D5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="E5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="F5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="G5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="H5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="I5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="J5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="K5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="L5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="M5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="N5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="O5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="P5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="Q5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="R5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="S5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="T5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="U5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="V5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="W5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="X5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="Y5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="Z5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AA5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AB5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AC5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AD5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AE5" s="1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="C6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="D6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="E6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="F6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="G6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="H6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="I6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="J6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="K6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="L6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="M6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="N6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="O6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="P6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="Q6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="R6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="S6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="T6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="U6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="V6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="W6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="X6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="Y6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="Z6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AA6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AB6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AC6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AD6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AE6" s="1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="C7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="D7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="E7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="F7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="G7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="H7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="I7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="J7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="K7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="L7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="M7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="N7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="O7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="P7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="Q7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="R7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="S7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="T7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="U7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="V7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="W7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="X7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="Y7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="Z7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AA7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AB7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AC7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AD7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AE7" s="1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="str">
-        <v>adadd</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="C8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="D8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="E8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="F8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="G8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="H8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="I8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="J8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="K8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="L8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="M8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="N8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="O8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="P8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="Q8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="R8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="S8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="T8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="U8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="V8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="W8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="X8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="Y8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="Z8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AA8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AB8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AC8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AD8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AE8" s="1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="str">
-        <v>afefew</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="C9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="D9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="E9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="F9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="G9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="H9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="I9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="J9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="K9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="L9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="M9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="N9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="O9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="P9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="Q9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="R9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="S9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="T9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="U9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="V9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="W9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="X9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="Y9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="Z9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AA9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AB9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AC9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AD9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AE9" s="1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B10" s="1" t="str">
-        <v>ho</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <v>123456</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="E10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="F10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="G10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="H10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="I10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="J10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="K10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="L10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="M10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="N10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="O10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="P10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="Q10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="R10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="S10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="T10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="U10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="V10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="W10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="X10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="Y10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="Z10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AA10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AB10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AC10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AD10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AE10" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE4" s="1" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/proyecto/back/excel/archivo.xlsx
+++ b/proyecto/back/excel/archivo.xlsx
@@ -32,9 +32,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -65,9 +64,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,376 +397,964 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" t="str">
         <v>marca_temporal</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" t="str">
         <v>foto</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" t="str">
         <v>DNI</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" t="str">
         <v>apellido</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" t="str">
         <v>nombre</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" t="str">
         <v>localidad</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" t="str">
         <v>tiene_hermanos</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" t="str">
         <v>telefono_alumno</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" t="str">
         <v>apellido_tutor</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" t="str">
         <v>nombre_tutor</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" t="str">
         <v>telefono_tutor</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" t="str">
         <v>telefono_tutor2</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" t="str">
         <v>curso</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" t="str">
         <v>establecimiento_anio_anterior</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" t="str">
         <v>DNI_tutor</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" t="str">
         <v>cuit_tutor</v>
       </c>
-      <c r="Q1" s="1" t="str">
+      <c r="Q1" t="str">
         <v>enfermedad_cronica</v>
       </c>
-      <c r="R1" s="1" t="str">
+      <c r="R1" t="str">
         <v>cual_enfermedad</v>
       </c>
-      <c r="S1" s="1" t="str">
+      <c r="S1" t="str">
         <v>medicacion</v>
       </c>
-      <c r="T1" s="1" t="str">
+      <c r="T1" t="str">
         <v>cual_medicacion</v>
       </c>
-      <c r="U1" s="1" t="str">
+      <c r="U1" t="str">
         <v>correoElectronico</v>
       </c>
-      <c r="V1" s="1" t="str">
+      <c r="V1" t="str">
         <v>fecha_nacimiento</v>
       </c>
-      <c r="W1" s="1" t="str">
+      <c r="W1" t="str">
         <v>edad</v>
       </c>
-      <c r="X1" s="1" t="str">
+      <c r="X1" t="str">
         <v>lugar_nacimiento</v>
       </c>
-      <c r="Y1" s="1" t="str">
+      <c r="Y1" t="str">
         <v>nacionalidad</v>
       </c>
-      <c r="Z1" s="1" t="str">
+      <c r="Z1" t="str">
         <v>domicilio</v>
       </c>
-      <c r="AA1" s="1" t="str">
+      <c r="AA1" t="str">
         <v>barrio</v>
       </c>
-      <c r="AB1" s="1" t="str">
+      <c r="AB1" t="str">
         <v>cod_postal</v>
       </c>
-      <c r="AC1" s="1" t="str">
+      <c r="AC1" t="str">
         <v>materias_adeuda</v>
       </c>
-      <c r="AD1" s="1" t="str">
+      <c r="AD1" t="str">
         <v>adeuda_materias</v>
       </c>
-      <c r="AE1" s="1" t="str">
+      <c r="AE1" t="str">
         <v>quien_aprobo</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>perro</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>apellido</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <v>perro</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <v>iud f</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <v>3i4343</v>
-      </c>
-      <c r="I2" s="1" t="str">
-        <v>vfoi.ju,den</v>
-      </c>
-      <c r="J2" s="1" t="str">
-        <v>o dfin</v>
-      </c>
-      <c r="K2" s="1" t="str">
-        <v xml:space="preserve">doinf </v>
-      </c>
-      <c r="L2" s="1" t="str">
-        <v>444444444444444</v>
-      </c>
-      <c r="M2" s="1" t="str">
-        <v>programacion</v>
-      </c>
-      <c r="N2" s="1" t="str">
-        <v>este colegio</v>
-      </c>
-      <c r="O2" s="1" t="str">
-        <v>urrrr4</v>
-      </c>
-      <c r="P2" s="1" t="str">
-        <v>341093484</v>
-      </c>
-      <c r="Q2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="R2" s="1" t="str">
-        <v>ninguna</v>
-      </c>
-      <c r="S2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="T2" s="1" t="str">
-        <v>nignuna</v>
-      </c>
-      <c r="U2" s="1" t="str">
-        <v>roro@gmail.com</v>
-      </c>
-      <c r="V2" s="1" t="str">
-        <v>noviembre</v>
-      </c>
-      <c r="W2" s="1" t="str">
-        <v>69</v>
-      </c>
-      <c r="X2" s="1" t="str">
-        <v>san martin</v>
-      </c>
-      <c r="Y2" s="1" t="str">
-        <v>argentina</v>
-      </c>
-      <c r="Z2" s="1" t="str">
-        <v>constan</v>
-      </c>
-      <c r="AA2" s="1" t="str">
-        <v>eaviucn</v>
-      </c>
-      <c r="AB2" s="1" t="str">
-        <v>1669</v>
-      </c>
-      <c r="AC2" s="1" t="str">
-        <v>No</v>
+      <c r="A2" t="str">
+        <v/>
+      </c>
+      <c r="B2" t="str">
+        <v>https://cdn.outsideonline.com/wp-content/uploads/2023/03/Funny_Dog_H.jpg?crop=16:9&amp;width=960&amp;enable=upscale&amp;quality=100</v>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v>qddd</v>
+      </c>
+      <c r="E2" t="str">
+        <v>dscdq</v>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <v/>
+      </c>
+      <c r="M2" t="str">
+        <v/>
+      </c>
+      <c r="N2" t="str">
+        <v/>
+      </c>
+      <c r="O2" t="str">
+        <v/>
+      </c>
+      <c r="P2" t="str">
+        <v/>
+      </c>
+      <c r="Q2" t="str">
+        <v/>
+      </c>
+      <c r="R2" t="str">
+        <v/>
+      </c>
+      <c r="S2" t="str">
+        <v/>
+      </c>
+      <c r="T2" t="str">
+        <v/>
+      </c>
+      <c r="U2" t="str">
+        <v/>
+      </c>
+      <c r="V2" t="str">
+        <v/>
+      </c>
+      <c r="W2" t="str">
+        <v/>
+      </c>
+      <c r="X2" t="str">
+        <v/>
+      </c>
+      <c r="Y2" t="str">
+        <v/>
+      </c>
+      <c r="Z2" t="str">
+        <v/>
+      </c>
+      <c r="AA2" t="str">
+        <v/>
+      </c>
+      <c r="AB2" t="str">
+        <v/>
+      </c>
+      <c r="AC2" t="str">
+        <v/>
+      </c>
+      <c r="AD2" t="str">
+        <v/>
+      </c>
+      <c r="AE2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>123</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <v>cocina</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <v>gato</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <v>iud f</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="H3" s="1" t="str">
-        <v>3i4343</v>
-      </c>
-      <c r="I3" s="1" t="str">
-        <v>vfoi.ju,den</v>
-      </c>
-      <c r="J3" s="1" t="str">
-        <v>o dfin</v>
-      </c>
-      <c r="K3" s="1" t="str">
-        <v xml:space="preserve">doinf </v>
-      </c>
-      <c r="L3" s="1" t="str">
-        <v>444444444444444</v>
-      </c>
-      <c r="M3" s="1" t="str">
-        <v>matematica</v>
-      </c>
-      <c r="N3" s="1" t="str">
-        <v>este colegio</v>
-      </c>
-      <c r="O3" s="1" t="str">
-        <v>urrrr4</v>
-      </c>
-      <c r="P3" s="1" t="str">
-        <v>341093484</v>
-      </c>
-      <c r="Q3" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="R3" s="1" t="str">
-        <v>ninguna</v>
-      </c>
-      <c r="S3" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="T3" s="1" t="str">
-        <v>nignuna</v>
-      </c>
-      <c r="U3" s="1" t="str">
-        <v>roro@gmail.com</v>
-      </c>
-      <c r="V3" s="1" t="str">
-        <v>noviembre</v>
-      </c>
-      <c r="W3" s="1" t="str">
-        <v>69</v>
-      </c>
-      <c r="X3" s="1" t="str">
-        <v>san martin</v>
-      </c>
-      <c r="Y3" s="1" t="str">
-        <v>argentina</v>
-      </c>
-      <c r="Z3" s="1" t="str">
-        <v>constan</v>
-      </c>
-      <c r="AA3" s="1" t="str">
-        <v>eaviucn</v>
-      </c>
-      <c r="AB3" s="1" t="str">
-        <v>1669</v>
-      </c>
-      <c r="AC3" s="1" t="str">
-        <v>No</v>
+      <c r="A3" t="str">
+        <v/>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v>adad</v>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <v/>
+      </c>
+      <c r="Q3" t="str">
+        <v/>
+      </c>
+      <c r="R3" t="str">
+        <v/>
+      </c>
+      <c r="S3" t="str">
+        <v/>
+      </c>
+      <c r="T3" t="str">
+        <v/>
+      </c>
+      <c r="U3" t="str">
+        <v/>
+      </c>
+      <c r="V3" t="str">
+        <v/>
+      </c>
+      <c r="W3" t="str">
+        <v/>
+      </c>
+      <c r="X3" t="str">
+        <v/>
+      </c>
+      <c r="Y3" t="str">
+        <v/>
+      </c>
+      <c r="Z3" t="str">
+        <v/>
+      </c>
+      <c r="AA3" t="str">
+        <v/>
+      </c>
+      <c r="AB3" t="str">
+        <v/>
+      </c>
+      <c r="AC3" t="str">
+        <v/>
+      </c>
+      <c r="AD3" t="str">
+        <v/>
+      </c>
+      <c r="AE3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="C4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="D4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="E4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="F4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="G4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="H4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="I4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="J4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="K4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="L4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="M4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="N4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="O4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="P4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="Q4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="R4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="S4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="T4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="U4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="V4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="W4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="X4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="Y4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="Z4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AA4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AB4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AC4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AD4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AE4" s="1" t="str">
+      <c r="A4" t="str">
+        <v/>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v>qd</v>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <v/>
+      </c>
+      <c r="Q4" t="str">
+        <v/>
+      </c>
+      <c r="R4" t="str">
+        <v/>
+      </c>
+      <c r="S4" t="str">
+        <v/>
+      </c>
+      <c r="T4" t="str">
+        <v/>
+      </c>
+      <c r="U4" t="str">
+        <v/>
+      </c>
+      <c r="V4" t="str">
+        <v/>
+      </c>
+      <c r="W4" t="str">
+        <v/>
+      </c>
+      <c r="X4" t="str">
+        <v/>
+      </c>
+      <c r="Y4" t="str">
+        <v/>
+      </c>
+      <c r="Z4" t="str">
+        <v/>
+      </c>
+      <c r="AA4" t="str">
+        <v/>
+      </c>
+      <c r="AB4" t="str">
+        <v/>
+      </c>
+      <c r="AC4" t="str">
+        <v/>
+      </c>
+      <c r="AD4" t="str">
+        <v/>
+      </c>
+      <c r="AE4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v/>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v>adq</v>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <v/>
+      </c>
+      <c r="Q5" t="str">
+        <v/>
+      </c>
+      <c r="R5" t="str">
+        <v/>
+      </c>
+      <c r="S5" t="str">
+        <v/>
+      </c>
+      <c r="T5" t="str">
+        <v/>
+      </c>
+      <c r="U5" t="str">
+        <v/>
+      </c>
+      <c r="V5" t="str">
+        <v/>
+      </c>
+      <c r="W5" t="str">
+        <v/>
+      </c>
+      <c r="X5" t="str">
+        <v/>
+      </c>
+      <c r="Y5" t="str">
+        <v/>
+      </c>
+      <c r="Z5" t="str">
+        <v/>
+      </c>
+      <c r="AA5" t="str">
+        <v/>
+      </c>
+      <c r="AB5" t="str">
+        <v/>
+      </c>
+      <c r="AC5" t="str">
+        <v/>
+      </c>
+      <c r="AD5" t="str">
+        <v/>
+      </c>
+      <c r="AE5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v>qeq</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <v/>
+      </c>
+      <c r="Q6" t="str">
+        <v/>
+      </c>
+      <c r="R6" t="str">
+        <v/>
+      </c>
+      <c r="S6" t="str">
+        <v/>
+      </c>
+      <c r="T6" t="str">
+        <v/>
+      </c>
+      <c r="U6" t="str">
+        <v/>
+      </c>
+      <c r="V6" t="str">
+        <v/>
+      </c>
+      <c r="W6" t="str">
+        <v/>
+      </c>
+      <c r="X6" t="str">
+        <v/>
+      </c>
+      <c r="Y6" t="str">
+        <v/>
+      </c>
+      <c r="Z6" t="str">
+        <v/>
+      </c>
+      <c r="AA6" t="str">
+        <v/>
+      </c>
+      <c r="AB6" t="str">
+        <v/>
+      </c>
+      <c r="AC6" t="str">
+        <v/>
+      </c>
+      <c r="AD6" t="str">
+        <v/>
+      </c>
+      <c r="AE6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v>Ramos Llanos</v>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <v/>
+      </c>
+      <c r="W7" t="str">
+        <v/>
+      </c>
+      <c r="X7" t="str">
+        <v/>
+      </c>
+      <c r="Y7" t="str">
+        <v/>
+      </c>
+      <c r="Z7" t="str">
+        <v/>
+      </c>
+      <c r="AA7" t="str">
+        <v/>
+      </c>
+      <c r="AB7" t="str">
+        <v/>
+      </c>
+      <c r="AC7" t="str">
+        <v/>
+      </c>
+      <c r="AD7" t="str">
+        <v/>
+      </c>
+      <c r="AE7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v>argañaraz</v>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <v/>
+      </c>
+      <c r="Q8" t="str">
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <v/>
+      </c>
+      <c r="W8" t="str">
+        <v/>
+      </c>
+      <c r="X8" t="str">
+        <v/>
+      </c>
+      <c r="Y8" t="str">
+        <v/>
+      </c>
+      <c r="Z8" t="str">
+        <v/>
+      </c>
+      <c r="AA8" t="str">
+        <v/>
+      </c>
+      <c r="AB8" t="str">
+        <v/>
+      </c>
+      <c r="AC8" t="str">
+        <v/>
+      </c>
+      <c r="AD8" t="str">
+        <v/>
+      </c>
+      <c r="AE8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <v/>
+      </c>
+      <c r="Q9" t="str">
+        <v/>
+      </c>
+      <c r="R9" t="str">
+        <v/>
+      </c>
+      <c r="S9" t="str">
+        <v/>
+      </c>
+      <c r="T9" t="str">
+        <v/>
+      </c>
+      <c r="U9" t="str">
+        <v/>
+      </c>
+      <c r="V9" t="str">
+        <v/>
+      </c>
+      <c r="W9" t="str">
+        <v>37</v>
+      </c>
+      <c r="X9" t="str">
+        <v/>
+      </c>
+      <c r="Y9" t="str">
+        <v/>
+      </c>
+      <c r="Z9" t="str">
+        <v/>
+      </c>
+      <c r="AA9" t="str">
+        <v/>
+      </c>
+      <c r="AB9" t="str">
+        <v/>
+      </c>
+      <c r="AC9" t="str">
+        <v/>
+      </c>
+      <c r="AD9" t="str">
+        <v/>
+      </c>
+      <c r="AE9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v>3345214</v>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <v/>
+      </c>
+      <c r="Q10" t="str">
+        <v/>
+      </c>
+      <c r="R10" t="str">
+        <v/>
+      </c>
+      <c r="S10" t="str">
+        <v/>
+      </c>
+      <c r="T10" t="str">
+        <v/>
+      </c>
+      <c r="U10" t="str">
+        <v/>
+      </c>
+      <c r="V10" t="str">
+        <v/>
+      </c>
+      <c r="W10" t="str">
+        <v/>
+      </c>
+      <c r="X10" t="str">
+        <v/>
+      </c>
+      <c r="Y10" t="str">
+        <v/>
+      </c>
+      <c r="Z10" t="str">
+        <v/>
+      </c>
+      <c r="AA10" t="str">
+        <v/>
+      </c>
+      <c r="AB10" t="str">
+        <v/>
+      </c>
+      <c r="AC10" t="str">
+        <v/>
+      </c>
+      <c r="AD10" t="str">
+        <v/>
+      </c>
+      <c r="AE10" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/proyecto/back/excel/archivo.xlsx
+++ b/proyecto/back/excel/archivo.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE10"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1352,9 +1352,104 @@
         <v/>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <v/>
+      </c>
+      <c r="Q11" t="str">
+        <v/>
+      </c>
+      <c r="R11" t="str">
+        <v/>
+      </c>
+      <c r="S11" t="str">
+        <v/>
+      </c>
+      <c r="T11" t="str">
+        <v/>
+      </c>
+      <c r="U11" t="str">
+        <v/>
+      </c>
+      <c r="V11" t="str">
+        <v/>
+      </c>
+      <c r="W11" t="str">
+        <v/>
+      </c>
+      <c r="X11" t="str">
+        <v/>
+      </c>
+      <c r="Y11" t="str">
+        <v/>
+      </c>
+      <c r="Z11" t="str">
+        <v/>
+      </c>
+      <c r="AA11" t="str">
+        <v/>
+      </c>
+      <c r="AB11" t="str">
+        <v/>
+      </c>
+      <c r="AC11" t="str">
+        <v/>
+      </c>
+      <c r="AD11" t="str">
+        <v/>
+      </c>
+      <c r="AE11" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/proyecto/back/excel/archivo.xlsx
+++ b/proyecto/back/excel/archivo.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE11"/>
+  <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -603,10 +603,10 @@
         <v/>
       </c>
       <c r="D3" t="str">
-        <v>adad</v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>qd</v>
       </c>
       <c r="F3" t="str">
         <v/>
@@ -698,10 +698,10 @@
         <v/>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>adq</v>
       </c>
       <c r="E4" t="str">
-        <v>qd</v>
+        <v/>
       </c>
       <c r="F4" t="str">
         <v/>
@@ -793,7 +793,7 @@
         <v/>
       </c>
       <c r="D5" t="str">
-        <v>adq</v>
+        <v>qeq</v>
       </c>
       <c r="E5" t="str">
         <v/>
@@ -888,7 +888,7 @@
         <v/>
       </c>
       <c r="D6" t="str">
-        <v>qeq</v>
+        <v>Ramos Llanos</v>
       </c>
       <c r="E6" t="str">
         <v/>
@@ -983,7 +983,7 @@
         <v/>
       </c>
       <c r="D7" t="str">
-        <v>Ramos Llanos</v>
+        <v>argañaraz</v>
       </c>
       <c r="E7" t="str">
         <v/>
@@ -1078,7 +1078,7 @@
         <v/>
       </c>
       <c r="D8" t="str">
-        <v>argañaraz</v>
+        <v/>
       </c>
       <c r="E8" t="str">
         <v/>
@@ -1135,7 +1135,7 @@
         <v/>
       </c>
       <c r="W8" t="str">
-        <v/>
+        <v>37</v>
       </c>
       <c r="X8" t="str">
         <v/>
@@ -1170,7 +1170,7 @@
         <v/>
       </c>
       <c r="C9" t="str">
-        <v/>
+        <v>3345214</v>
       </c>
       <c r="D9" t="str">
         <v/>
@@ -1230,7 +1230,7 @@
         <v/>
       </c>
       <c r="W9" t="str">
-        <v>37</v>
+        <v/>
       </c>
       <c r="X9" t="str">
         <v/>
@@ -1265,7 +1265,7 @@
         <v/>
       </c>
       <c r="C10" t="str">
-        <v>3345214</v>
+        <v/>
       </c>
       <c r="D10" t="str">
         <v/>
@@ -1360,7 +1360,7 @@
         <v/>
       </c>
       <c r="C11" t="str">
-        <v/>
+        <v>33</v>
       </c>
       <c r="D11" t="str">
         <v/>
@@ -1444,12 +1444,564 @@
         <v/>
       </c>
       <c r="AE11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v/>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <v/>
+      </c>
+      <c r="Q12" t="str">
+        <v/>
+      </c>
+      <c r="R12" t="str">
+        <v/>
+      </c>
+      <c r="S12" t="str">
+        <v/>
+      </c>
+      <c r="T12" t="str">
+        <v/>
+      </c>
+      <c r="U12" t="str">
+        <v/>
+      </c>
+      <c r="V12" t="str">
+        <v/>
+      </c>
+      <c r="W12" t="str">
+        <v/>
+      </c>
+      <c r="X12" t="str">
+        <v/>
+      </c>
+      <c r="Y12" t="str">
+        <v/>
+      </c>
+      <c r="Z12" t="str">
+        <v/>
+      </c>
+      <c r="AA12" t="str">
+        <v/>
+      </c>
+      <c r="AB12" t="str">
+        <v/>
+      </c>
+      <c r="AC12" t="str">
+        <v/>
+      </c>
+      <c r="AD12" t="str">
+        <v/>
+      </c>
+      <c r="AE12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <v>https://cdn.outsideonline.com/wp-content/uploads/2023/03/Funny_Dog_H.jpg?crop=16:9&amp;width=960&amp;enable=upscale&amp;quality=100</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v>Vega</v>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <v/>
+      </c>
+      <c r="Q13" t="str">
+        <v/>
+      </c>
+      <c r="R13" t="str">
+        <v/>
+      </c>
+      <c r="S13" t="str">
+        <v/>
+      </c>
+      <c r="T13" t="str">
+        <v/>
+      </c>
+      <c r="U13" t="str">
+        <v/>
+      </c>
+      <c r="V13" t="str">
+        <v/>
+      </c>
+      <c r="W13" t="str">
+        <v/>
+      </c>
+      <c r="X13" t="str">
+        <v/>
+      </c>
+      <c r="Y13" t="str">
+        <v/>
+      </c>
+      <c r="Z13" t="str">
+        <v/>
+      </c>
+      <c r="AA13" t="str">
+        <v/>
+      </c>
+      <c r="AB13" t="str">
+        <v/>
+      </c>
+      <c r="AC13" t="str">
+        <v/>
+      </c>
+      <c r="AD13" t="str">
+        <v/>
+      </c>
+      <c r="AE13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <v/>
+      </c>
+      <c r="M14" t="str">
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <v/>
+      </c>
+      <c r="P14" t="str">
+        <v/>
+      </c>
+      <c r="Q14" t="str">
+        <v/>
+      </c>
+      <c r="R14" t="str">
+        <v/>
+      </c>
+      <c r="S14" t="str">
+        <v/>
+      </c>
+      <c r="T14" t="str">
+        <v/>
+      </c>
+      <c r="U14" t="str">
+        <v/>
+      </c>
+      <c r="V14" t="str">
+        <v/>
+      </c>
+      <c r="W14" t="str">
+        <v/>
+      </c>
+      <c r="X14" t="str">
+        <v/>
+      </c>
+      <c r="Y14" t="str">
+        <v/>
+      </c>
+      <c r="Z14" t="str">
+        <v/>
+      </c>
+      <c r="AA14" t="str">
+        <v/>
+      </c>
+      <c r="AB14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <v/>
+      </c>
+      <c r="Q15" t="str">
+        <v/>
+      </c>
+      <c r="R15" t="str">
+        <v/>
+      </c>
+      <c r="S15" t="str">
+        <v/>
+      </c>
+      <c r="T15" t="str">
+        <v/>
+      </c>
+      <c r="U15" t="str">
+        <v/>
+      </c>
+      <c r="V15" t="str">
+        <v/>
+      </c>
+      <c r="W15" t="str">
+        <v/>
+      </c>
+      <c r="X15" t="str">
+        <v/>
+      </c>
+      <c r="Y15" t="str">
+        <v/>
+      </c>
+      <c r="Z15" t="str">
+        <v/>
+      </c>
+      <c r="AA15" t="str">
+        <v/>
+      </c>
+      <c r="AB15" t="str">
+        <v/>
+      </c>
+      <c r="AC15" t="str">
+        <v/>
+      </c>
+      <c r="AD15" t="str">
+        <v/>
+      </c>
+      <c r="AE15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <v/>
+      </c>
+      <c r="P16" t="str">
+        <v/>
+      </c>
+      <c r="Q16" t="str">
+        <v/>
+      </c>
+      <c r="R16" t="str">
+        <v/>
+      </c>
+      <c r="S16" t="str">
+        <v/>
+      </c>
+      <c r="T16" t="str">
+        <v/>
+      </c>
+      <c r="U16" t="str">
+        <v/>
+      </c>
+      <c r="V16" t="str">
+        <v/>
+      </c>
+      <c r="W16" t="str">
+        <v/>
+      </c>
+      <c r="X16" t="str">
+        <v/>
+      </c>
+      <c r="Y16" t="str">
+        <v/>
+      </c>
+      <c r="Z16" t="str">
+        <v/>
+      </c>
+      <c r="AA16" t="str">
+        <v/>
+      </c>
+      <c r="AB16" t="str">
+        <v/>
+      </c>
+      <c r="AC16" t="str">
+        <v/>
+      </c>
+      <c r="AD16" t="str">
+        <v/>
+      </c>
+      <c r="AE16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <v/>
+      </c>
+      <c r="Q17" t="str">
+        <v/>
+      </c>
+      <c r="R17" t="str">
+        <v/>
+      </c>
+      <c r="S17" t="str">
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <v/>
+      </c>
+      <c r="U17" t="str">
+        <v/>
+      </c>
+      <c r="V17" t="str">
+        <v/>
+      </c>
+      <c r="W17" t="str">
+        <v/>
+      </c>
+      <c r="X17" t="str">
+        <v/>
+      </c>
+      <c r="Y17" t="str">
+        <v/>
+      </c>
+      <c r="Z17" t="str">
+        <v/>
+      </c>
+      <c r="AA17" t="str">
+        <v/>
+      </c>
+      <c r="AB17" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE17"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/proyecto/back/excel/archivo.xlsx
+++ b/proyecto/back/excel/archivo.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE17"/>
+  <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1176,7 +1176,7 @@
         <v/>
       </c>
       <c r="E9" t="str">
-        <v/>
+        <v>qqqqq</v>
       </c>
       <c r="F9" t="str">
         <v/>
@@ -1999,9 +1999,95 @@
         <v/>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v>llamos</v>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <v/>
+      </c>
+      <c r="M18" t="str">
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <v/>
+      </c>
+      <c r="P18" t="str">
+        <v/>
+      </c>
+      <c r="Q18" t="str">
+        <v/>
+      </c>
+      <c r="R18" t="str">
+        <v/>
+      </c>
+      <c r="S18" t="str">
+        <v/>
+      </c>
+      <c r="T18" t="str">
+        <v/>
+      </c>
+      <c r="U18" t="str">
+        <v/>
+      </c>
+      <c r="V18" t="str">
+        <v/>
+      </c>
+      <c r="W18" t="str">
+        <v/>
+      </c>
+      <c r="X18" t="str">
+        <v/>
+      </c>
+      <c r="Y18" t="str">
+        <v/>
+      </c>
+      <c r="Z18" t="str">
+        <v/>
+      </c>
+      <c r="AA18" t="str">
+        <v/>
+      </c>
+      <c r="AB18" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE18"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/proyecto/back/excel/archivo.xlsx
+++ b/proyecto/back/excel/archivo.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE18"/>
+  <dimension ref="A1:AE19"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2085,9 +2085,95 @@
         <v/>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v>ana</v>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <v/>
+      </c>
+      <c r="P19" t="str">
+        <v/>
+      </c>
+      <c r="Q19" t="str">
+        <v/>
+      </c>
+      <c r="R19" t="str">
+        <v/>
+      </c>
+      <c r="S19" t="str">
+        <v/>
+      </c>
+      <c r="T19" t="str">
+        <v/>
+      </c>
+      <c r="U19" t="str">
+        <v/>
+      </c>
+      <c r="V19" t="str">
+        <v/>
+      </c>
+      <c r="W19" t="str">
+        <v/>
+      </c>
+      <c r="X19" t="str">
+        <v/>
+      </c>
+      <c r="Y19" t="str">
+        <v/>
+      </c>
+      <c r="Z19" t="str">
+        <v/>
+      </c>
+      <c r="AA19" t="str">
+        <v/>
+      </c>
+      <c r="AB19" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE19"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/proyecto/back/excel/archivo.xlsx
+++ b/proyecto/back/excel/archivo.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE19"/>
+  <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -496,6 +496,15 @@
       <c r="AE1" t="str">
         <v>quien_aprobo</v>
       </c>
+      <c r="AF1" t="str">
+        <v>materia</v>
+      </c>
+      <c r="AG1" t="str">
+        <v>nota</v>
+      </c>
+      <c r="AH1" t="str">
+        <v>estado</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -2171,9 +2180,641 @@
         <v/>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v>42</v>
+      </c>
+      <c r="D20" t="str">
+        <v>roma</v>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <v/>
+      </c>
+      <c r="Q20" t="str">
+        <v/>
+      </c>
+      <c r="R20" t="str">
+        <v/>
+      </c>
+      <c r="S20" t="str">
+        <v/>
+      </c>
+      <c r="T20" t="str">
+        <v/>
+      </c>
+      <c r="U20" t="str">
+        <v/>
+      </c>
+      <c r="V20" t="str">
+        <v/>
+      </c>
+      <c r="W20" t="str">
+        <v/>
+      </c>
+      <c r="X20" t="str">
+        <v/>
+      </c>
+      <c r="Y20" t="str">
+        <v/>
+      </c>
+      <c r="Z20" t="str">
+        <v/>
+      </c>
+      <c r="AA20" t="str">
+        <v/>
+      </c>
+      <c r="AB20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v>como</v>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <v>f</v>
+      </c>
+      <c r="N21" t="str">
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <v/>
+      </c>
+      <c r="Q21" t="str">
+        <v/>
+      </c>
+      <c r="R21" t="str">
+        <v/>
+      </c>
+      <c r="S21" t="str">
+        <v/>
+      </c>
+      <c r="T21" t="str">
+        <v/>
+      </c>
+      <c r="U21" t="str">
+        <v/>
+      </c>
+      <c r="V21" t="str">
+        <v/>
+      </c>
+      <c r="W21" t="str">
+        <v/>
+      </c>
+      <c r="X21" t="str">
+        <v/>
+      </c>
+      <c r="Y21" t="str">
+        <v/>
+      </c>
+      <c r="Z21" t="str">
+        <v/>
+      </c>
+      <c r="AA21" t="str">
+        <v/>
+      </c>
+      <c r="AB21" t="str">
+        <v/>
+      </c>
+      <c r="AF21" t="str">
+        <v>matematica</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v>holaaaa</v>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <v/>
+      </c>
+      <c r="M22" t="str">
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <v/>
+      </c>
+      <c r="P22" t="str">
+        <v/>
+      </c>
+      <c r="Q22" t="str">
+        <v/>
+      </c>
+      <c r="R22" t="str">
+        <v/>
+      </c>
+      <c r="S22" t="str">
+        <v/>
+      </c>
+      <c r="T22" t="str">
+        <v/>
+      </c>
+      <c r="U22" t="str">
+        <v/>
+      </c>
+      <c r="V22" t="str">
+        <v/>
+      </c>
+      <c r="W22" t="str">
+        <v/>
+      </c>
+      <c r="X22" t="str">
+        <v/>
+      </c>
+      <c r="Y22" t="str">
+        <v/>
+      </c>
+      <c r="Z22" t="str">
+        <v/>
+      </c>
+      <c r="AA22" t="str">
+        <v/>
+      </c>
+      <c r="AB22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <v/>
+      </c>
+      <c r="M23" t="str">
+        <v/>
+      </c>
+      <c r="N23" t="str">
+        <v/>
+      </c>
+      <c r="O23" t="str">
+        <v/>
+      </c>
+      <c r="P23" t="str">
+        <v/>
+      </c>
+      <c r="Q23" t="str">
+        <v/>
+      </c>
+      <c r="R23" t="str">
+        <v/>
+      </c>
+      <c r="S23" t="str">
+        <v/>
+      </c>
+      <c r="T23" t="str">
+        <v/>
+      </c>
+      <c r="U23" t="str">
+        <v/>
+      </c>
+      <c r="V23" t="str">
+        <v/>
+      </c>
+      <c r="W23" t="str">
+        <v/>
+      </c>
+      <c r="X23" t="str">
+        <v/>
+      </c>
+      <c r="Y23" t="str">
+        <v/>
+      </c>
+      <c r="Z23" t="str">
+        <v/>
+      </c>
+      <c r="AA23" t="str">
+        <v/>
+      </c>
+      <c r="AB23" t="str">
+        <v/>
+      </c>
+      <c r="AF23" t="str">
+        <v/>
+      </c>
+      <c r="AG23" t="str">
+        <v/>
+      </c>
+      <c r="AH23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <v/>
+      </c>
+      <c r="M24" t="str">
+        <v/>
+      </c>
+      <c r="N24" t="str">
+        <v/>
+      </c>
+      <c r="O24" t="str">
+        <v/>
+      </c>
+      <c r="P24" t="str">
+        <v/>
+      </c>
+      <c r="Q24" t="str">
+        <v/>
+      </c>
+      <c r="R24" t="str">
+        <v/>
+      </c>
+      <c r="S24" t="str">
+        <v/>
+      </c>
+      <c r="T24" t="str">
+        <v/>
+      </c>
+      <c r="U24" t="str">
+        <v/>
+      </c>
+      <c r="V24" t="str">
+        <v/>
+      </c>
+      <c r="W24" t="str">
+        <v/>
+      </c>
+      <c r="X24" t="str">
+        <v/>
+      </c>
+      <c r="Y24" t="str">
+        <v/>
+      </c>
+      <c r="Z24" t="str">
+        <v/>
+      </c>
+      <c r="AA24" t="str">
+        <v/>
+      </c>
+      <c r="AB24" t="str">
+        <v/>
+      </c>
+      <c r="AF24" t="str">
+        <v/>
+      </c>
+      <c r="AG24" t="str">
+        <v/>
+      </c>
+      <c r="AH24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <v/>
+      </c>
+      <c r="L25" t="str">
+        <v/>
+      </c>
+      <c r="M25" t="str">
+        <v/>
+      </c>
+      <c r="N25" t="str">
+        <v/>
+      </c>
+      <c r="O25" t="str">
+        <v/>
+      </c>
+      <c r="P25" t="str">
+        <v/>
+      </c>
+      <c r="Q25" t="str">
+        <v/>
+      </c>
+      <c r="R25" t="str">
+        <v/>
+      </c>
+      <c r="S25" t="str">
+        <v/>
+      </c>
+      <c r="T25" t="str">
+        <v/>
+      </c>
+      <c r="U25" t="str">
+        <v/>
+      </c>
+      <c r="V25" t="str">
+        <v/>
+      </c>
+      <c r="W25" t="str">
+        <v/>
+      </c>
+      <c r="X25" t="str">
+        <v/>
+      </c>
+      <c r="Y25" t="str">
+        <v/>
+      </c>
+      <c r="Z25" t="str">
+        <v/>
+      </c>
+      <c r="AA25" t="str">
+        <v/>
+      </c>
+      <c r="AB25" t="str">
+        <v/>
+      </c>
+      <c r="AF25" t="str">
+        <v/>
+      </c>
+      <c r="AG25" t="str">
+        <v/>
+      </c>
+      <c r="AH25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v>Vega</v>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v/>
+      </c>
+      <c r="L26" t="str">
+        <v/>
+      </c>
+      <c r="M26" t="str">
+        <v/>
+      </c>
+      <c r="N26" t="str">
+        <v/>
+      </c>
+      <c r="O26" t="str">
+        <v/>
+      </c>
+      <c r="P26" t="str">
+        <v/>
+      </c>
+      <c r="Q26" t="str">
+        <v/>
+      </c>
+      <c r="R26" t="str">
+        <v/>
+      </c>
+      <c r="S26" t="str">
+        <v/>
+      </c>
+      <c r="T26" t="str">
+        <v/>
+      </c>
+      <c r="U26" t="str">
+        <v/>
+      </c>
+      <c r="V26" t="str">
+        <v/>
+      </c>
+      <c r="W26" t="str">
+        <v/>
+      </c>
+      <c r="X26" t="str">
+        <v/>
+      </c>
+      <c r="Y26" t="str">
+        <v/>
+      </c>
+      <c r="Z26" t="str">
+        <v/>
+      </c>
+      <c r="AA26" t="str">
+        <v/>
+      </c>
+      <c r="AB26" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AH26"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/proyecto/back/excel/archivo.xlsx
+++ b/proyecto/back/excel/archivo.xlsx
@@ -4,6 +4,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="SecondSheet" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -397,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE19"/>
+  <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2171,9 +2172,1225 @@
         <v/>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v>Diego Rafael Llanos Ramos</v>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <v/>
+      </c>
+      <c r="Q20" t="str">
+        <v/>
+      </c>
+      <c r="R20" t="str">
+        <v/>
+      </c>
+      <c r="S20" t="str">
+        <v/>
+      </c>
+      <c r="T20" t="str">
+        <v/>
+      </c>
+      <c r="U20" t="str">
+        <v/>
+      </c>
+      <c r="V20" t="str">
+        <v/>
+      </c>
+      <c r="W20" t="str">
+        <v/>
+      </c>
+      <c r="X20" t="str">
+        <v/>
+      </c>
+      <c r="Y20" t="str">
+        <v/>
+      </c>
+      <c r="Z20" t="str">
+        <v/>
+      </c>
+      <c r="AA20" t="str">
+        <v/>
+      </c>
+      <c r="AB20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v>Diego Rafael Llanos Ramos</v>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <v/>
+      </c>
+      <c r="Q21" t="str">
+        <v/>
+      </c>
+      <c r="R21" t="str">
+        <v/>
+      </c>
+      <c r="S21" t="str">
+        <v/>
+      </c>
+      <c r="T21" t="str">
+        <v/>
+      </c>
+      <c r="U21" t="str">
+        <v/>
+      </c>
+      <c r="V21" t="str">
+        <v/>
+      </c>
+      <c r="W21" t="str">
+        <v/>
+      </c>
+      <c r="X21" t="str">
+        <v/>
+      </c>
+      <c r="Y21" t="str">
+        <v/>
+      </c>
+      <c r="Z21" t="str">
+        <v/>
+      </c>
+      <c r="AA21" t="str">
+        <v/>
+      </c>
+      <c r="AB21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v>3345214</v>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <v/>
+      </c>
+      <c r="M22" t="str">
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <v/>
+      </c>
+      <c r="P22" t="str">
+        <v/>
+      </c>
+      <c r="Q22" t="str">
+        <v/>
+      </c>
+      <c r="R22" t="str">
+        <v/>
+      </c>
+      <c r="S22" t="str">
+        <v/>
+      </c>
+      <c r="T22" t="str">
+        <v/>
+      </c>
+      <c r="U22" t="str">
+        <v/>
+      </c>
+      <c r="V22" t="str">
+        <v/>
+      </c>
+      <c r="W22" t="str">
+        <v/>
+      </c>
+      <c r="X22" t="str">
+        <v/>
+      </c>
+      <c r="Y22" t="str">
+        <v/>
+      </c>
+      <c r="Z22" t="str">
+        <v/>
+      </c>
+      <c r="AA22" t="str">
+        <v/>
+      </c>
+      <c r="AB22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v>3345214</v>
+      </c>
+      <c r="D23" t="str">
+        <v>adqd</v>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <v/>
+      </c>
+      <c r="M23" t="str">
+        <v/>
+      </c>
+      <c r="N23" t="str">
+        <v/>
+      </c>
+      <c r="O23" t="str">
+        <v/>
+      </c>
+      <c r="P23" t="str">
+        <v/>
+      </c>
+      <c r="Q23" t="str">
+        <v/>
+      </c>
+      <c r="R23" t="str">
+        <v/>
+      </c>
+      <c r="S23" t="str">
+        <v/>
+      </c>
+      <c r="T23" t="str">
+        <v/>
+      </c>
+      <c r="U23" t="str">
+        <v/>
+      </c>
+      <c r="V23" t="str">
+        <v/>
+      </c>
+      <c r="W23" t="str">
+        <v/>
+      </c>
+      <c r="X23" t="str">
+        <v/>
+      </c>
+      <c r="Y23" t="str">
+        <v/>
+      </c>
+      <c r="Z23" t="str">
+        <v/>
+      </c>
+      <c r="AA23" t="str">
+        <v/>
+      </c>
+      <c r="AB23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <v>33</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Vega</v>
+      </c>
+      <c r="E24" t="str">
+        <v>rafa</v>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <v/>
+      </c>
+      <c r="M24" t="str">
+        <v/>
+      </c>
+      <c r="N24" t="str">
+        <v/>
+      </c>
+      <c r="O24" t="str">
+        <v/>
+      </c>
+      <c r="P24" t="str">
+        <v/>
+      </c>
+      <c r="Q24" t="str">
+        <v/>
+      </c>
+      <c r="R24" t="str">
+        <v/>
+      </c>
+      <c r="S24" t="str">
+        <v/>
+      </c>
+      <c r="T24" t="str">
+        <v/>
+      </c>
+      <c r="U24" t="str">
+        <v/>
+      </c>
+      <c r="V24" t="str">
+        <v/>
+      </c>
+      <c r="W24" t="str">
+        <v/>
+      </c>
+      <c r="X24" t="str">
+        <v/>
+      </c>
+      <c r="Y24" t="str">
+        <v/>
+      </c>
+      <c r="Z24" t="str">
+        <v/>
+      </c>
+      <c r="AA24" t="str">
+        <v/>
+      </c>
+      <c r="AB24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <v/>
+      </c>
+      <c r="L25" t="str">
+        <v/>
+      </c>
+      <c r="M25" t="str">
+        <v/>
+      </c>
+      <c r="N25" t="str">
+        <v/>
+      </c>
+      <c r="O25" t="str">
+        <v/>
+      </c>
+      <c r="P25" t="str">
+        <v/>
+      </c>
+      <c r="Q25" t="str">
+        <v/>
+      </c>
+      <c r="R25" t="str">
+        <v/>
+      </c>
+      <c r="S25" t="str">
+        <v/>
+      </c>
+      <c r="T25" t="str">
+        <v/>
+      </c>
+      <c r="U25" t="str">
+        <v/>
+      </c>
+      <c r="V25" t="str">
+        <v/>
+      </c>
+      <c r="W25" t="str">
+        <v/>
+      </c>
+      <c r="X25" t="str">
+        <v/>
+      </c>
+      <c r="Y25" t="str">
+        <v/>
+      </c>
+      <c r="Z25" t="str">
+        <v/>
+      </c>
+      <c r="AA25" t="str">
+        <v/>
+      </c>
+      <c r="AB25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <v>47</v>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v/>
+      </c>
+      <c r="L26" t="str">
+        <v/>
+      </c>
+      <c r="M26" t="str">
+        <v/>
+      </c>
+      <c r="N26" t="str">
+        <v/>
+      </c>
+      <c r="O26" t="str">
+        <v/>
+      </c>
+      <c r="P26" t="str">
+        <v/>
+      </c>
+      <c r="Q26" t="str">
+        <v/>
+      </c>
+      <c r="R26" t="str">
+        <v/>
+      </c>
+      <c r="S26" t="str">
+        <v/>
+      </c>
+      <c r="T26" t="str">
+        <v/>
+      </c>
+      <c r="U26" t="str">
+        <v/>
+      </c>
+      <c r="V26" t="str">
+        <v/>
+      </c>
+      <c r="W26" t="str">
+        <v/>
+      </c>
+      <c r="X26" t="str">
+        <v/>
+      </c>
+      <c r="Y26" t="str">
+        <v/>
+      </c>
+      <c r="Z26" t="str">
+        <v/>
+      </c>
+      <c r="AA26" t="str">
+        <v/>
+      </c>
+      <c r="AB26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <v>33</v>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <v/>
+      </c>
+      <c r="L27" t="str">
+        <v/>
+      </c>
+      <c r="M27" t="str">
+        <v/>
+      </c>
+      <c r="N27" t="str">
+        <v/>
+      </c>
+      <c r="O27" t="str">
+        <v/>
+      </c>
+      <c r="P27" t="str">
+        <v/>
+      </c>
+      <c r="Q27" t="str">
+        <v/>
+      </c>
+      <c r="R27" t="str">
+        <v/>
+      </c>
+      <c r="S27" t="str">
+        <v/>
+      </c>
+      <c r="T27" t="str">
+        <v/>
+      </c>
+      <c r="U27" t="str">
+        <v/>
+      </c>
+      <c r="V27" t="str">
+        <v/>
+      </c>
+      <c r="W27" t="str">
+        <v/>
+      </c>
+      <c r="X27" t="str">
+        <v/>
+      </c>
+      <c r="Y27" t="str">
+        <v/>
+      </c>
+      <c r="Z27" t="str">
+        <v/>
+      </c>
+      <c r="AA27" t="str">
+        <v/>
+      </c>
+      <c r="AB27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v/>
+      </c>
+      <c r="B28" t="str">
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <v>32584529</v>
+      </c>
+      <c r="D28" t="str">
+        <v>argañaraz</v>
+      </c>
+      <c r="E28" t="str">
+        <v>javier</v>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <v/>
+      </c>
+      <c r="L28" t="str">
+        <v/>
+      </c>
+      <c r="M28" t="str">
+        <v/>
+      </c>
+      <c r="N28" t="str">
+        <v/>
+      </c>
+      <c r="O28" t="str">
+        <v/>
+      </c>
+      <c r="P28" t="str">
+        <v/>
+      </c>
+      <c r="Q28" t="str">
+        <v/>
+      </c>
+      <c r="R28" t="str">
+        <v/>
+      </c>
+      <c r="S28" t="str">
+        <v/>
+      </c>
+      <c r="T28" t="str">
+        <v/>
+      </c>
+      <c r="U28" t="str">
+        <v/>
+      </c>
+      <c r="V28" t="str">
+        <v/>
+      </c>
+      <c r="W28" t="str">
+        <v/>
+      </c>
+      <c r="X28" t="str">
+        <v/>
+      </c>
+      <c r="Y28" t="str">
+        <v/>
+      </c>
+      <c r="Z28" t="str">
+        <v/>
+      </c>
+      <c r="AA28" t="str">
+        <v/>
+      </c>
+      <c r="AB28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="str">
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <v>123</v>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <v/>
+      </c>
+      <c r="L29" t="str">
+        <v/>
+      </c>
+      <c r="M29" t="str">
+        <v/>
+      </c>
+      <c r="N29" t="str">
+        <v/>
+      </c>
+      <c r="O29" t="str">
+        <v/>
+      </c>
+      <c r="P29" t="str">
+        <v/>
+      </c>
+      <c r="Q29" t="str">
+        <v/>
+      </c>
+      <c r="R29" t="str">
+        <v/>
+      </c>
+      <c r="S29" t="str">
+        <v/>
+      </c>
+      <c r="T29" t="str">
+        <v/>
+      </c>
+      <c r="U29" t="str">
+        <v/>
+      </c>
+      <c r="V29" t="str">
+        <v/>
+      </c>
+      <c r="W29" t="str">
+        <v/>
+      </c>
+      <c r="X29" t="str">
+        <v/>
+      </c>
+      <c r="Y29" t="str">
+        <v/>
+      </c>
+      <c r="Z29" t="str">
+        <v/>
+      </c>
+      <c r="AA29" t="str">
+        <v/>
+      </c>
+      <c r="AB29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="str">
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <v>333</v>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <v>rafa</v>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+      <c r="H30" t="str">
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <v/>
+      </c>
+      <c r="L30" t="str">
+        <v/>
+      </c>
+      <c r="M30" t="str">
+        <v>4to</v>
+      </c>
+      <c r="N30" t="str">
+        <v/>
+      </c>
+      <c r="O30" t="str">
+        <v/>
+      </c>
+      <c r="P30" t="str">
+        <v/>
+      </c>
+      <c r="Q30" t="str">
+        <v/>
+      </c>
+      <c r="R30" t="str">
+        <v/>
+      </c>
+      <c r="S30" t="str">
+        <v/>
+      </c>
+      <c r="T30" t="str">
+        <v/>
+      </c>
+      <c r="U30" t="str">
+        <v/>
+      </c>
+      <c r="V30" t="str">
+        <v/>
+      </c>
+      <c r="W30" t="str">
+        <v/>
+      </c>
+      <c r="X30" t="str">
+        <v/>
+      </c>
+      <c r="Y30" t="str">
+        <v/>
+      </c>
+      <c r="Z30" t="str">
+        <v/>
+      </c>
+      <c r="AA30" t="str">
+        <v/>
+      </c>
+      <c r="AB30" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE30"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>DNI</v>
+      </c>
+      <c r="B1" t="str">
+        <v>apellido</v>
+      </c>
+      <c r="C1" t="str">
+        <v>nombre</v>
+      </c>
+      <c r="D1" t="str">
+        <v>curso</v>
+      </c>
+      <c r="E1" t="str">
+        <v>materia</v>
+      </c>
+      <c r="F1" t="str">
+        <v>nota</v>
+      </c>
+      <c r="G1" t="str">
+        <v>estado</v>
+      </c>
+      <c r="H1" t="str">
+        <v>cursoMateria</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>3345214</v>
+      </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v>qqqqq</v>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v>hola</v>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v>Desaprobado</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>33</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v>adadw</v>
+      </c>
+      <c r="F3" t="str">
+        <v>a</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Aprobado</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>3345214</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v>qqqqq</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v>mate</v>
+      </c>
+      <c r="F4" t="str">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Desaprobado</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>47</v>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v>rqr</v>
+      </c>
+      <c r="F5" t="str">
+        <v>5</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Aprobado</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>47</v>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v>42</v>
+      </c>
+      <c r="F6" t="str">
+        <v>t5</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Aprobado</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>33</v>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v>ad</v>
+      </c>
+      <c r="F7" t="str">
+        <v>5</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Desaprobado</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>32584529</v>
+      </c>
+      <c r="B8" t="str">
+        <v>argañaraz</v>
+      </c>
+      <c r="C8" t="str">
+        <v>javier</v>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v>matematica</v>
+      </c>
+      <c r="F8" t="str">
+        <v>4</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Desaprobado</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>32584529</v>
+      </c>
+      <c r="B9" t="str">
+        <v>argañaraz</v>
+      </c>
+      <c r="C9" t="str">
+        <v>javier</v>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v>lengua</v>
+      </c>
+      <c r="F9" t="str">
+        <v>5</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Desaprobado</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>123</v>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v>32re</v>
+      </c>
+      <c r="F10" t="str">
+        <v>133</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="H10" t="str">
+        <v>fwe</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>333</v>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <v>rafa</v>
+      </c>
+      <c r="D11" t="str">
+        <v>4to</v>
+      </c>
+      <c r="E11" t="str">
+        <v>grre</v>
+      </c>
+      <c r="F11" t="str">
+        <v>af</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="H11" t="str">
+        <v>et</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:H11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/proyecto/back/excel/archivo.xlsx
+++ b/proyecto/back/excel/archivo.xlsx
@@ -3121,7 +3121,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -3388,9 +3388,32 @@
         <v>et</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>3345214</v>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v>qqqqq</v>
+      </c>
+      <c r="E12" t="str">
+        <v>fwwgwfwf</v>
+      </c>
+      <c r="F12" t="str">
+        <v>wf</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Desaprobado</v>
+      </c>
+      <c r="H12" t="str">
+        <v>er</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/proyecto/back/excel/archivo.xlsx
+++ b/proyecto/back/excel/archivo.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE30"/>
+  <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -3112,16 +3112,763 @@
         <v/>
       </c>
     </row>
+    <row r="31">
+      <c r="B31" t="str">
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <v>442</v>
+      </c>
+      <c r="D31" t="str">
+        <v>qe</v>
+      </c>
+      <c r="E31" t="str">
+        <v>ff</v>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <v/>
+      </c>
+      <c r="L31" t="str">
+        <v/>
+      </c>
+      <c r="M31" t="str">
+        <v/>
+      </c>
+      <c r="N31" t="str">
+        <v/>
+      </c>
+      <c r="O31" t="str">
+        <v/>
+      </c>
+      <c r="P31" t="str">
+        <v/>
+      </c>
+      <c r="Q31" t="str">
+        <v/>
+      </c>
+      <c r="R31" t="str">
+        <v/>
+      </c>
+      <c r="S31" t="str">
+        <v/>
+      </c>
+      <c r="T31" t="str">
+        <v/>
+      </c>
+      <c r="U31" t="str">
+        <v/>
+      </c>
+      <c r="V31" t="str">
+        <v/>
+      </c>
+      <c r="W31" t="str">
+        <v/>
+      </c>
+      <c r="X31" t="str">
+        <v/>
+      </c>
+      <c r="Y31" t="str">
+        <v/>
+      </c>
+      <c r="Z31" t="str">
+        <v/>
+      </c>
+      <c r="AA31" t="str">
+        <v/>
+      </c>
+      <c r="AB31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="str">
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <v>3376</v>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+      <c r="H32" t="str">
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <v/>
+      </c>
+      <c r="L32" t="str">
+        <v/>
+      </c>
+      <c r="M32" t="str">
+        <v/>
+      </c>
+      <c r="N32" t="str">
+        <v/>
+      </c>
+      <c r="O32" t="str">
+        <v/>
+      </c>
+      <c r="P32" t="str">
+        <v/>
+      </c>
+      <c r="Q32" t="str">
+        <v/>
+      </c>
+      <c r="R32" t="str">
+        <v/>
+      </c>
+      <c r="S32" t="str">
+        <v/>
+      </c>
+      <c r="T32" t="str">
+        <v/>
+      </c>
+      <c r="U32" t="str">
+        <v/>
+      </c>
+      <c r="V32" t="str">
+        <v/>
+      </c>
+      <c r="W32" t="str">
+        <v/>
+      </c>
+      <c r="X32" t="str">
+        <v/>
+      </c>
+      <c r="Y32" t="str">
+        <v/>
+      </c>
+      <c r="Z32" t="str">
+        <v/>
+      </c>
+      <c r="AA32" t="str">
+        <v/>
+      </c>
+      <c r="AB32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="str">
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <v>gre</v>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+      <c r="H33" t="str">
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <v/>
+      </c>
+      <c r="K33" t="str">
+        <v/>
+      </c>
+      <c r="L33" t="str">
+        <v/>
+      </c>
+      <c r="M33" t="str">
+        <v/>
+      </c>
+      <c r="N33" t="str">
+        <v/>
+      </c>
+      <c r="O33" t="str">
+        <v/>
+      </c>
+      <c r="P33" t="str">
+        <v/>
+      </c>
+      <c r="Q33" t="str">
+        <v/>
+      </c>
+      <c r="R33" t="str">
+        <v/>
+      </c>
+      <c r="S33" t="str">
+        <v/>
+      </c>
+      <c r="T33" t="str">
+        <v/>
+      </c>
+      <c r="U33" t="str">
+        <v/>
+      </c>
+      <c r="V33" t="str">
+        <v/>
+      </c>
+      <c r="W33" t="str">
+        <v/>
+      </c>
+      <c r="X33" t="str">
+        <v/>
+      </c>
+      <c r="Y33" t="str">
+        <v/>
+      </c>
+      <c r="Z33" t="str">
+        <v/>
+      </c>
+      <c r="AA33" t="str">
+        <v/>
+      </c>
+      <c r="AB33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="str">
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+      <c r="H34" t="str">
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <v/>
+      </c>
+      <c r="L34" t="str">
+        <v/>
+      </c>
+      <c r="M34" t="str">
+        <v/>
+      </c>
+      <c r="N34" t="str">
+        <v/>
+      </c>
+      <c r="O34" t="str">
+        <v/>
+      </c>
+      <c r="P34" t="str">
+        <v/>
+      </c>
+      <c r="Q34" t="str">
+        <v/>
+      </c>
+      <c r="R34" t="str">
+        <v/>
+      </c>
+      <c r="S34" t="str">
+        <v/>
+      </c>
+      <c r="T34" t="str">
+        <v/>
+      </c>
+      <c r="U34" t="str">
+        <v/>
+      </c>
+      <c r="V34" t="str">
+        <v/>
+      </c>
+      <c r="W34" t="str">
+        <v/>
+      </c>
+      <c r="X34" t="str">
+        <v/>
+      </c>
+      <c r="Y34" t="str">
+        <v/>
+      </c>
+      <c r="Z34" t="str">
+        <v/>
+      </c>
+      <c r="AA34" t="str">
+        <v/>
+      </c>
+      <c r="AB34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+      <c r="H35" t="str">
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <v/>
+      </c>
+      <c r="L35" t="str">
+        <v/>
+      </c>
+      <c r="M35" t="str">
+        <v/>
+      </c>
+      <c r="N35" t="str">
+        <v/>
+      </c>
+      <c r="O35" t="str">
+        <v/>
+      </c>
+      <c r="P35" t="str">
+        <v/>
+      </c>
+      <c r="Q35" t="str">
+        <v/>
+      </c>
+      <c r="R35" t="str">
+        <v/>
+      </c>
+      <c r="S35" t="str">
+        <v/>
+      </c>
+      <c r="T35" t="str">
+        <v/>
+      </c>
+      <c r="U35" t="str">
+        <v/>
+      </c>
+      <c r="V35" t="str">
+        <v/>
+      </c>
+      <c r="W35" t="str">
+        <v/>
+      </c>
+      <c r="X35" t="str">
+        <v/>
+      </c>
+      <c r="Y35" t="str">
+        <v/>
+      </c>
+      <c r="Z35" t="str">
+        <v/>
+      </c>
+      <c r="AA35" t="str">
+        <v/>
+      </c>
+      <c r="AB35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <v/>
+      </c>
+      <c r="J36" t="str">
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <v/>
+      </c>
+      <c r="L36" t="str">
+        <v/>
+      </c>
+      <c r="M36" t="str">
+        <v/>
+      </c>
+      <c r="N36" t="str">
+        <v/>
+      </c>
+      <c r="O36" t="str">
+        <v/>
+      </c>
+      <c r="P36" t="str">
+        <v/>
+      </c>
+      <c r="Q36" t="str">
+        <v/>
+      </c>
+      <c r="R36" t="str">
+        <v/>
+      </c>
+      <c r="S36" t="str">
+        <v/>
+      </c>
+      <c r="T36" t="str">
+        <v/>
+      </c>
+      <c r="U36" t="str">
+        <v/>
+      </c>
+      <c r="V36" t="str">
+        <v/>
+      </c>
+      <c r="W36" t="str">
+        <v/>
+      </c>
+      <c r="X36" t="str">
+        <v/>
+      </c>
+      <c r="Y36" t="str">
+        <v/>
+      </c>
+      <c r="Z36" t="str">
+        <v/>
+      </c>
+      <c r="AA36" t="str">
+        <v/>
+      </c>
+      <c r="AB36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="str">
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <v/>
+      </c>
+      <c r="L37" t="str">
+        <v/>
+      </c>
+      <c r="M37" t="str">
+        <v/>
+      </c>
+      <c r="N37" t="str">
+        <v/>
+      </c>
+      <c r="O37" t="str">
+        <v/>
+      </c>
+      <c r="P37" t="str">
+        <v/>
+      </c>
+      <c r="Q37" t="str">
+        <v/>
+      </c>
+      <c r="R37" t="str">
+        <v/>
+      </c>
+      <c r="S37" t="str">
+        <v/>
+      </c>
+      <c r="T37" t="str">
+        <v/>
+      </c>
+      <c r="U37" t="str">
+        <v/>
+      </c>
+      <c r="V37" t="str">
+        <v/>
+      </c>
+      <c r="W37" t="str">
+        <v/>
+      </c>
+      <c r="X37" t="str">
+        <v/>
+      </c>
+      <c r="Y37" t="str">
+        <v/>
+      </c>
+      <c r="Z37" t="str">
+        <v/>
+      </c>
+      <c r="AA37" t="str">
+        <v/>
+      </c>
+      <c r="AB37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="str">
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <v/>
+      </c>
+      <c r="H38" t="str">
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <v/>
+      </c>
+      <c r="L38" t="str">
+        <v/>
+      </c>
+      <c r="M38" t="str">
+        <v/>
+      </c>
+      <c r="N38" t="str">
+        <v/>
+      </c>
+      <c r="O38" t="str">
+        <v/>
+      </c>
+      <c r="P38" t="str">
+        <v/>
+      </c>
+      <c r="Q38" t="str">
+        <v/>
+      </c>
+      <c r="R38" t="str">
+        <v/>
+      </c>
+      <c r="S38" t="str">
+        <v/>
+      </c>
+      <c r="T38" t="str">
+        <v/>
+      </c>
+      <c r="U38" t="str">
+        <v/>
+      </c>
+      <c r="V38" t="str">
+        <v/>
+      </c>
+      <c r="W38" t="str">
+        <v/>
+      </c>
+      <c r="X38" t="str">
+        <v/>
+      </c>
+      <c r="Y38" t="str">
+        <v/>
+      </c>
+      <c r="Z38" t="str">
+        <v/>
+      </c>
+      <c r="AA38" t="str">
+        <v/>
+      </c>
+      <c r="AB38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="str">
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <v>42</v>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+      <c r="H39" t="str">
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <v/>
+      </c>
+      <c r="L39" t="str">
+        <v/>
+      </c>
+      <c r="M39" t="str">
+        <v/>
+      </c>
+      <c r="N39" t="str">
+        <v/>
+      </c>
+      <c r="O39" t="str">
+        <v/>
+      </c>
+      <c r="P39" t="str">
+        <v/>
+      </c>
+      <c r="Q39" t="str">
+        <v/>
+      </c>
+      <c r="R39" t="str">
+        <v/>
+      </c>
+      <c r="S39" t="str">
+        <v/>
+      </c>
+      <c r="T39" t="str">
+        <v/>
+      </c>
+      <c r="U39" t="str">
+        <v/>
+      </c>
+      <c r="V39" t="str">
+        <v/>
+      </c>
+      <c r="W39" t="str">
+        <v/>
+      </c>
+      <c r="X39" t="str">
+        <v/>
+      </c>
+      <c r="Y39" t="str">
+        <v/>
+      </c>
+      <c r="Z39" t="str">
+        <v/>
+      </c>
+      <c r="AA39" t="str">
+        <v/>
+      </c>
+      <c r="AB39" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE39"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -3411,9 +4158,55 @@
         <v>er</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>3345214</v>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v>qqqqq</v>
+      </c>
+      <c r="E13" t="str">
+        <v>matematica</v>
+      </c>
+      <c r="F13" t="str">
+        <v>3</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Desaprobado</v>
+      </c>
+      <c r="H13" t="str">
+        <v>4to</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>442</v>
+      </c>
+      <c r="B14" t="str">
+        <v>qe</v>
+      </c>
+      <c r="C14" t="str">
+        <v>ff</v>
+      </c>
+      <c r="E14" t="str">
+        <v>fr</v>
+      </c>
+      <c r="F14" t="str">
+        <v>5</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="H14" t="str">
+        <v>wvwfwfqf</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/proyecto/back/excel/archivo.xlsx
+++ b/proyecto/back/excel/archivo.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE39"/>
+  <dimension ref="A1:AE45"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -3859,9 +3859,507 @@
         <v/>
       </c>
     </row>
+    <row r="40">
+      <c r="B40" t="str">
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <v>2</v>
+      </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
+      <c r="E40" t="str">
+        <v/>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+      <c r="H40" t="str">
+        <v/>
+      </c>
+      <c r="I40" t="str">
+        <v/>
+      </c>
+      <c r="J40" t="str">
+        <v/>
+      </c>
+      <c r="K40" t="str">
+        <v/>
+      </c>
+      <c r="L40" t="str">
+        <v/>
+      </c>
+      <c r="M40" t="str">
+        <v/>
+      </c>
+      <c r="N40" t="str">
+        <v/>
+      </c>
+      <c r="O40" t="str">
+        <v/>
+      </c>
+      <c r="P40" t="str">
+        <v/>
+      </c>
+      <c r="Q40" t="str">
+        <v/>
+      </c>
+      <c r="R40" t="str">
+        <v/>
+      </c>
+      <c r="S40" t="str">
+        <v/>
+      </c>
+      <c r="T40" t="str">
+        <v/>
+      </c>
+      <c r="U40" t="str">
+        <v/>
+      </c>
+      <c r="V40" t="str">
+        <v/>
+      </c>
+      <c r="W40" t="str">
+        <v/>
+      </c>
+      <c r="X40" t="str">
+        <v/>
+      </c>
+      <c r="Y40" t="str">
+        <v/>
+      </c>
+      <c r="Z40" t="str">
+        <v/>
+      </c>
+      <c r="AA40" t="str">
+        <v/>
+      </c>
+      <c r="AB40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="str">
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <v>2</v>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+      <c r="H41" t="str">
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <v/>
+      </c>
+      <c r="J41" t="str">
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <v/>
+      </c>
+      <c r="L41" t="str">
+        <v/>
+      </c>
+      <c r="M41" t="str">
+        <v/>
+      </c>
+      <c r="N41" t="str">
+        <v/>
+      </c>
+      <c r="O41" t="str">
+        <v/>
+      </c>
+      <c r="P41" t="str">
+        <v/>
+      </c>
+      <c r="Q41" t="str">
+        <v/>
+      </c>
+      <c r="R41" t="str">
+        <v/>
+      </c>
+      <c r="S41" t="str">
+        <v/>
+      </c>
+      <c r="T41" t="str">
+        <v/>
+      </c>
+      <c r="U41" t="str">
+        <v/>
+      </c>
+      <c r="V41" t="str">
+        <v/>
+      </c>
+      <c r="W41" t="str">
+        <v/>
+      </c>
+      <c r="X41" t="str">
+        <v/>
+      </c>
+      <c r="Y41" t="str">
+        <v/>
+      </c>
+      <c r="Z41" t="str">
+        <v/>
+      </c>
+      <c r="AA41" t="str">
+        <v/>
+      </c>
+      <c r="AB41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="str">
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <v>2</v>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <v/>
+      </c>
+      <c r="H42" t="str">
+        <v/>
+      </c>
+      <c r="I42" t="str">
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <v/>
+      </c>
+      <c r="L42" t="str">
+        <v/>
+      </c>
+      <c r="M42" t="str">
+        <v/>
+      </c>
+      <c r="N42" t="str">
+        <v/>
+      </c>
+      <c r="O42" t="str">
+        <v/>
+      </c>
+      <c r="P42" t="str">
+        <v/>
+      </c>
+      <c r="Q42" t="str">
+        <v/>
+      </c>
+      <c r="R42" t="str">
+        <v/>
+      </c>
+      <c r="S42" t="str">
+        <v/>
+      </c>
+      <c r="T42" t="str">
+        <v/>
+      </c>
+      <c r="U42" t="str">
+        <v/>
+      </c>
+      <c r="V42" t="str">
+        <v/>
+      </c>
+      <c r="W42" t="str">
+        <v/>
+      </c>
+      <c r="X42" t="str">
+        <v/>
+      </c>
+      <c r="Y42" t="str">
+        <v/>
+      </c>
+      <c r="Z42" t="str">
+        <v/>
+      </c>
+      <c r="AA42" t="str">
+        <v/>
+      </c>
+      <c r="AB42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="str">
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <v>2</v>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <v/>
+      </c>
+      <c r="H43" t="str">
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <v/>
+      </c>
+      <c r="J43" t="str">
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <v/>
+      </c>
+      <c r="L43" t="str">
+        <v/>
+      </c>
+      <c r="M43" t="str">
+        <v/>
+      </c>
+      <c r="N43" t="str">
+        <v/>
+      </c>
+      <c r="O43" t="str">
+        <v/>
+      </c>
+      <c r="P43" t="str">
+        <v/>
+      </c>
+      <c r="Q43" t="str">
+        <v/>
+      </c>
+      <c r="R43" t="str">
+        <v/>
+      </c>
+      <c r="S43" t="str">
+        <v/>
+      </c>
+      <c r="T43" t="str">
+        <v/>
+      </c>
+      <c r="U43" t="str">
+        <v/>
+      </c>
+      <c r="V43" t="str">
+        <v/>
+      </c>
+      <c r="W43" t="str">
+        <v/>
+      </c>
+      <c r="X43" t="str">
+        <v/>
+      </c>
+      <c r="Y43" t="str">
+        <v/>
+      </c>
+      <c r="Z43" t="str">
+        <v/>
+      </c>
+      <c r="AA43" t="str">
+        <v/>
+      </c>
+      <c r="AB43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="str">
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <v>2</v>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <v/>
+      </c>
+      <c r="H44" t="str">
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <v/>
+      </c>
+      <c r="J44" t="str">
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <v/>
+      </c>
+      <c r="L44" t="str">
+        <v/>
+      </c>
+      <c r="M44" t="str">
+        <v/>
+      </c>
+      <c r="N44" t="str">
+        <v/>
+      </c>
+      <c r="O44" t="str">
+        <v/>
+      </c>
+      <c r="P44" t="str">
+        <v/>
+      </c>
+      <c r="Q44" t="str">
+        <v/>
+      </c>
+      <c r="R44" t="str">
+        <v/>
+      </c>
+      <c r="S44" t="str">
+        <v/>
+      </c>
+      <c r="T44" t="str">
+        <v/>
+      </c>
+      <c r="U44" t="str">
+        <v/>
+      </c>
+      <c r="V44" t="str">
+        <v/>
+      </c>
+      <c r="W44" t="str">
+        <v/>
+      </c>
+      <c r="X44" t="str">
+        <v/>
+      </c>
+      <c r="Y44" t="str">
+        <v/>
+      </c>
+      <c r="Z44" t="str">
+        <v/>
+      </c>
+      <c r="AA44" t="str">
+        <v/>
+      </c>
+      <c r="AB44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="str">
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <v>2</v>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v/>
+      </c>
+      <c r="H45" t="str">
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <v/>
+      </c>
+      <c r="J45" t="str">
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <v/>
+      </c>
+      <c r="L45" t="str">
+        <v/>
+      </c>
+      <c r="M45" t="str">
+        <v/>
+      </c>
+      <c r="N45" t="str">
+        <v/>
+      </c>
+      <c r="O45" t="str">
+        <v/>
+      </c>
+      <c r="P45" t="str">
+        <v/>
+      </c>
+      <c r="Q45" t="str">
+        <v/>
+      </c>
+      <c r="R45" t="str">
+        <v/>
+      </c>
+      <c r="S45" t="str">
+        <v/>
+      </c>
+      <c r="T45" t="str">
+        <v/>
+      </c>
+      <c r="U45" t="str">
+        <v/>
+      </c>
+      <c r="V45" t="str">
+        <v/>
+      </c>
+      <c r="W45" t="str">
+        <v/>
+      </c>
+      <c r="X45" t="str">
+        <v/>
+      </c>
+      <c r="Y45" t="str">
+        <v/>
+      </c>
+      <c r="Z45" t="str">
+        <v/>
+      </c>
+      <c r="AA45" t="str">
+        <v/>
+      </c>
+      <c r="AB45" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE39"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE45"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/proyecto/back/excel/archivo.xlsx
+++ b/proyecto/back/excel/archivo.xlsx
@@ -4358,6 +4358,7 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:AE45"/>
   </ignoredErrors>
@@ -4366,7 +4367,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -4382,18 +4383,15 @@
         <v>nombre</v>
       </c>
       <c r="D1" t="str">
-        <v>curso</v>
+        <v>materia</v>
       </c>
       <c r="E1" t="str">
-        <v>materia</v>
+        <v>nota</v>
       </c>
       <c r="F1" t="str">
-        <v>nota</v>
+        <v>estado</v>
       </c>
       <c r="G1" t="str">
-        <v>estado</v>
-      </c>
-      <c r="H1" t="str">
         <v>cursoMateria</v>
       </c>
     </row>
@@ -4408,15 +4406,12 @@
         <v>qqqqq</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>hola</v>
       </c>
       <c r="E2" t="str">
-        <v>hola</v>
+        <v/>
       </c>
       <c r="F2" t="str">
-        <v/>
-      </c>
-      <c r="G2" t="str">
         <v>Desaprobado</v>
       </c>
     </row>
@@ -4431,15 +4426,12 @@
         <v/>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>adadw</v>
       </c>
       <c r="E3" t="str">
-        <v>adadw</v>
+        <v>a</v>
       </c>
       <c r="F3" t="str">
-        <v>a</v>
-      </c>
-      <c r="G3" t="str">
         <v>Aprobado</v>
       </c>
     </row>
@@ -4454,15 +4446,12 @@
         <v>qqqqq</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>mate</v>
       </c>
       <c r="E4" t="str">
-        <v>mate</v>
+        <v>1</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
-      </c>
-      <c r="G4" t="str">
         <v>Desaprobado</v>
       </c>
     </row>
@@ -4477,15 +4466,12 @@
         <v/>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>rqr</v>
       </c>
       <c r="E5" t="str">
-        <v>rqr</v>
+        <v>5</v>
       </c>
       <c r="F5" t="str">
-        <v>5</v>
-      </c>
-      <c r="G5" t="str">
         <v>Aprobado</v>
       </c>
     </row>
@@ -4500,15 +4486,12 @@
         <v/>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>42</v>
       </c>
       <c r="E6" t="str">
-        <v>42</v>
+        <v>t5</v>
       </c>
       <c r="F6" t="str">
-        <v>t5</v>
-      </c>
-      <c r="G6" t="str">
         <v>Aprobado</v>
       </c>
     </row>
@@ -4523,15 +4506,12 @@
         <v/>
       </c>
       <c r="D7" t="str">
-        <v/>
+        <v>ad</v>
       </c>
       <c r="E7" t="str">
-        <v>ad</v>
+        <v>5</v>
       </c>
       <c r="F7" t="str">
-        <v>5</v>
-      </c>
-      <c r="G7" t="str">
         <v>Desaprobado</v>
       </c>
     </row>
@@ -4546,15 +4526,12 @@
         <v>javier</v>
       </c>
       <c r="D8" t="str">
-        <v/>
+        <v>matematica</v>
       </c>
       <c r="E8" t="str">
-        <v>matematica</v>
+        <v>4</v>
       </c>
       <c r="F8" t="str">
-        <v>4</v>
-      </c>
-      <c r="G8" t="str">
         <v>Desaprobado</v>
       </c>
     </row>
@@ -4569,15 +4546,12 @@
         <v>javier</v>
       </c>
       <c r="D9" t="str">
-        <v/>
+        <v>lengua</v>
       </c>
       <c r="E9" t="str">
-        <v>lengua</v>
+        <v>5</v>
       </c>
       <c r="F9" t="str">
-        <v>5</v>
-      </c>
-      <c r="G9" t="str">
         <v>Desaprobado</v>
       </c>
     </row>
@@ -4592,18 +4566,15 @@
         <v/>
       </c>
       <c r="D10" t="str">
-        <v/>
+        <v>32re</v>
       </c>
       <c r="E10" t="str">
-        <v>32re</v>
+        <v>133</v>
       </c>
       <c r="F10" t="str">
-        <v>133</v>
+        <v>Aprobado</v>
       </c>
       <c r="G10" t="str">
-        <v>Aprobado</v>
-      </c>
-      <c r="H10" t="str">
         <v>fwe</v>
       </c>
     </row>
@@ -4618,18 +4589,15 @@
         <v>rafa</v>
       </c>
       <c r="D11" t="str">
-        <v>4to</v>
+        <v>grre</v>
       </c>
       <c r="E11" t="str">
-        <v>grre</v>
+        <v/>
       </c>
       <c r="F11" t="str">
-        <v>af</v>
+        <v>Aprobado</v>
       </c>
       <c r="G11" t="str">
-        <v>Aprobado</v>
-      </c>
-      <c r="H11" t="str">
         <v>et</v>
       </c>
     </row>
@@ -4643,16 +4611,16 @@
       <c r="C12" t="str">
         <v>qqqqq</v>
       </c>
+      <c r="D12" t="str">
+        <v>fwwgwfwf</v>
+      </c>
       <c r="E12" t="str">
-        <v>fwwgwfwf</v>
+        <v>wf</v>
       </c>
       <c r="F12" t="str">
-        <v>wf</v>
+        <v>Desaprobado</v>
       </c>
       <c r="G12" t="str">
-        <v>Desaprobado</v>
-      </c>
-      <c r="H12" t="str">
         <v>er</v>
       </c>
     </row>
@@ -4666,16 +4634,16 @@
       <c r="C13" t="str">
         <v>qqqqq</v>
       </c>
+      <c r="D13" t="str">
+        <v>matematica</v>
+      </c>
       <c r="E13" t="str">
-        <v>matematica</v>
+        <v>3</v>
       </c>
       <c r="F13" t="str">
-        <v>3</v>
+        <v>Desaprobado</v>
       </c>
       <c r="G13" t="str">
-        <v>Desaprobado</v>
-      </c>
-      <c r="H13" t="str">
         <v>4to</v>
       </c>
     </row>
@@ -4689,22 +4657,91 @@
       <c r="C14" t="str">
         <v>ff</v>
       </c>
+      <c r="D14" t="str">
+        <v>fr</v>
+      </c>
       <c r="E14" t="str">
-        <v>fr</v>
+        <v>5</v>
       </c>
       <c r="F14" t="str">
-        <v>5</v>
+        <v>Aprobado</v>
       </c>
       <c r="G14" t="str">
+        <v>wvwfwfqf</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>33</v>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v>fw</v>
+      </c>
+      <c r="E15" t="str">
+        <v>wfw</v>
+      </c>
+      <c r="F15" t="str">
         <v>Aprobado</v>
       </c>
-      <c r="H14" t="str">
-        <v>wvwfwfqf</v>
+      <c r="G15" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>33</v>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v>ver</v>
+      </c>
+      <c r="E16" t="str">
+        <v>4</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Desaprobado</v>
+      </c>
+      <c r="G16" t="str">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>33</v>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v xml:space="preserve"> qmdqm</v>
+      </c>
+      <c r="E17" t="str">
+        <v>4</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Aprobado</v>
+      </c>
+      <c r="G17" t="str">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G17"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/proyecto/back/excel/archivo.xlsx
+++ b/proyecto/back/excel/archivo.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE45"/>
+  <dimension ref="A1:AE46"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -4357,17 +4357,99 @@
         <v/>
       </c>
     </row>
+    <row r="46">
+      <c r="B46" t="str">
+        <v>https://cdn.outsideonline.com/wp-content/uploads/2023/03/Funny_Dog_H.jpg?crop=16:9&amp;width=960&amp;enable=upscale&amp;quality=100</v>
+      </c>
+      <c r="C46" t="str">
+        <v>3825533188</v>
+      </c>
+      <c r="D46" t="str">
+        <v>movil</v>
+      </c>
+      <c r="E46" t="str">
+        <v>paqueta</v>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <v/>
+      </c>
+      <c r="H46" t="str">
+        <v/>
+      </c>
+      <c r="I46" t="str">
+        <v/>
+      </c>
+      <c r="J46" t="str">
+        <v/>
+      </c>
+      <c r="K46" t="str">
+        <v/>
+      </c>
+      <c r="L46" t="str">
+        <v/>
+      </c>
+      <c r="M46" t="str">
+        <v/>
+      </c>
+      <c r="N46" t="str">
+        <v/>
+      </c>
+      <c r="O46" t="str">
+        <v/>
+      </c>
+      <c r="P46" t="str">
+        <v/>
+      </c>
+      <c r="Q46" t="str">
+        <v/>
+      </c>
+      <c r="R46" t="str">
+        <v/>
+      </c>
+      <c r="S46" t="str">
+        <v/>
+      </c>
+      <c r="T46" t="str">
+        <v/>
+      </c>
+      <c r="U46" t="str">
+        <v/>
+      </c>
+      <c r="V46" t="str">
+        <v/>
+      </c>
+      <c r="W46" t="str">
+        <v/>
+      </c>
+      <c r="X46" t="str">
+        <v/>
+      </c>
+      <c r="Y46" t="str">
+        <v/>
+      </c>
+      <c r="Z46" t="str">
+        <v/>
+      </c>
+      <c r="AA46" t="str">
+        <v/>
+      </c>
+      <c r="AB46" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE45"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE46"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -4739,9 +4821,32 @@
         <v>43</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>3825533188</v>
+      </c>
+      <c r="B18" t="str">
+        <v>movil</v>
+      </c>
+      <c r="C18" t="str">
+        <v>paqueta</v>
+      </c>
+      <c r="D18" t="str">
+        <v>matematica</v>
+      </c>
+      <c r="E18" t="str">
+        <v>6</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Desaprobado</v>
+      </c>
+      <c r="G18" t="str">
+        <v>4to</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G18"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/proyecto/back/excel/archivo.xlsx
+++ b/proyecto/back/excel/archivo.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE46"/>
+  <dimension ref="A1:AE48"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -4440,9 +4440,175 @@
         <v/>
       </c>
     </row>
+    <row r="47">
+      <c r="B47" t="str">
+        <v/>
+      </c>
+      <c r="C47" t="str">
+        <v>31</v>
+      </c>
+      <c r="D47" t="str">
+        <v>diego</v>
+      </c>
+      <c r="E47" t="str">
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <v/>
+      </c>
+      <c r="H47" t="str">
+        <v/>
+      </c>
+      <c r="I47" t="str">
+        <v/>
+      </c>
+      <c r="J47" t="str">
+        <v/>
+      </c>
+      <c r="K47" t="str">
+        <v/>
+      </c>
+      <c r="L47" t="str">
+        <v/>
+      </c>
+      <c r="M47" t="str">
+        <v/>
+      </c>
+      <c r="N47" t="str">
+        <v/>
+      </c>
+      <c r="O47" t="str">
+        <v/>
+      </c>
+      <c r="P47" t="str">
+        <v/>
+      </c>
+      <c r="Q47" t="str">
+        <v/>
+      </c>
+      <c r="R47" t="str">
+        <v/>
+      </c>
+      <c r="S47" t="str">
+        <v/>
+      </c>
+      <c r="T47" t="str">
+        <v/>
+      </c>
+      <c r="U47" t="str">
+        <v/>
+      </c>
+      <c r="V47" t="str">
+        <v/>
+      </c>
+      <c r="W47" t="str">
+        <v/>
+      </c>
+      <c r="X47" t="str">
+        <v/>
+      </c>
+      <c r="Y47" t="str">
+        <v/>
+      </c>
+      <c r="Z47" t="str">
+        <v/>
+      </c>
+      <c r="AA47" t="str">
+        <v/>
+      </c>
+      <c r="AB47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="str">
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+      <c r="H48" t="str">
+        <v/>
+      </c>
+      <c r="I48" t="str">
+        <v/>
+      </c>
+      <c r="J48" t="str">
+        <v/>
+      </c>
+      <c r="K48" t="str">
+        <v/>
+      </c>
+      <c r="L48" t="str">
+        <v/>
+      </c>
+      <c r="M48" t="str">
+        <v/>
+      </c>
+      <c r="N48" t="str">
+        <v/>
+      </c>
+      <c r="O48" t="str">
+        <v/>
+      </c>
+      <c r="P48" t="str">
+        <v/>
+      </c>
+      <c r="Q48" t="str">
+        <v/>
+      </c>
+      <c r="R48" t="str">
+        <v/>
+      </c>
+      <c r="S48" t="str">
+        <v/>
+      </c>
+      <c r="T48" t="str">
+        <v/>
+      </c>
+      <c r="U48" t="str">
+        <v/>
+      </c>
+      <c r="V48" t="str">
+        <v/>
+      </c>
+      <c r="W48" t="str">
+        <v/>
+      </c>
+      <c r="X48" t="str">
+        <v/>
+      </c>
+      <c r="Y48" t="str">
+        <v/>
+      </c>
+      <c r="Z48" t="str">
+        <v/>
+      </c>
+      <c r="AA48" t="str">
+        <v/>
+      </c>
+      <c r="AB48" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE48"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/proyecto/back/excel/archivo.xlsx
+++ b/proyecto/back/excel/archivo.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE48"/>
+  <dimension ref="A1:AE47"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -984,7 +984,7 @@
         <v/>
       </c>
       <c r="D7" t="str">
-        <v>argañaraz</v>
+        <v/>
       </c>
       <c r="E7" t="str">
         <v/>
@@ -1041,7 +1041,7 @@
         <v/>
       </c>
       <c r="W7" t="str">
-        <v/>
+        <v>37</v>
       </c>
       <c r="X7" t="str">
         <v/>
@@ -1076,13 +1076,13 @@
         <v/>
       </c>
       <c r="C8" t="str">
-        <v/>
+        <v>3345214</v>
       </c>
       <c r="D8" t="str">
         <v/>
       </c>
       <c r="E8" t="str">
-        <v/>
+        <v>qqqqq</v>
       </c>
       <c r="F8" t="str">
         <v/>
@@ -1136,7 +1136,7 @@
         <v/>
       </c>
       <c r="W8" t="str">
-        <v>37</v>
+        <v/>
       </c>
       <c r="X8" t="str">
         <v/>
@@ -1171,13 +1171,13 @@
         <v/>
       </c>
       <c r="C9" t="str">
-        <v>3345214</v>
+        <v/>
       </c>
       <c r="D9" t="str">
         <v/>
       </c>
       <c r="E9" t="str">
-        <v>qqqqq</v>
+        <v/>
       </c>
       <c r="F9" t="str">
         <v/>
@@ -1266,7 +1266,7 @@
         <v/>
       </c>
       <c r="C10" t="str">
-        <v/>
+        <v>33</v>
       </c>
       <c r="D10" t="str">
         <v/>
@@ -1361,7 +1361,7 @@
         <v/>
       </c>
       <c r="C11" t="str">
-        <v>33</v>
+        <v/>
       </c>
       <c r="D11" t="str">
         <v/>
@@ -1453,13 +1453,13 @@
         <v/>
       </c>
       <c r="B12" t="str">
-        <v/>
+        <v>https://cdn.outsideonline.com/wp-content/uploads/2023/03/Funny_Dog_H.jpg?crop=16:9&amp;width=960&amp;enable=upscale&amp;quality=100</v>
       </c>
       <c r="C12" t="str">
         <v/>
       </c>
       <c r="D12" t="str">
-        <v/>
+        <v>Vega</v>
       </c>
       <c r="E12" t="str">
         <v/>
@@ -1548,13 +1548,13 @@
         <v/>
       </c>
       <c r="B13" t="str">
-        <v>https://cdn.outsideonline.com/wp-content/uploads/2023/03/Funny_Dog_H.jpg?crop=16:9&amp;width=960&amp;enable=upscale&amp;quality=100</v>
+        <v/>
       </c>
       <c r="C13" t="str">
         <v/>
       </c>
       <c r="D13" t="str">
-        <v>Vega</v>
+        <v/>
       </c>
       <c r="E13" t="str">
         <v/>
@@ -1626,15 +1626,6 @@
         <v/>
       </c>
       <c r="AB13" t="str">
-        <v/>
-      </c>
-      <c r="AC13" t="str">
-        <v/>
-      </c>
-      <c r="AD13" t="str">
-        <v/>
-      </c>
-      <c r="AE13" t="str">
         <v/>
       </c>
     </row>
@@ -1723,6 +1714,15 @@
       <c r="AB14" t="str">
         <v/>
       </c>
+      <c r="AC14" t="str">
+        <v/>
+      </c>
+      <c r="AD14" t="str">
+        <v/>
+      </c>
+      <c r="AE14" t="str">
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -1904,15 +1904,6 @@
       <c r="AB16" t="str">
         <v/>
       </c>
-      <c r="AC16" t="str">
-        <v/>
-      </c>
-      <c r="AD16" t="str">
-        <v/>
-      </c>
-      <c r="AE16" t="str">
-        <v/>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -1925,7 +1916,7 @@
         <v/>
       </c>
       <c r="D17" t="str">
-        <v/>
+        <v>llamos</v>
       </c>
       <c r="E17" t="str">
         <v/>
@@ -2011,10 +2002,10 @@
         <v/>
       </c>
       <c r="D18" t="str">
-        <v>llamos</v>
+        <v/>
       </c>
       <c r="E18" t="str">
-        <v/>
+        <v>ana</v>
       </c>
       <c r="F18" t="str">
         <v/>
@@ -2100,7 +2091,7 @@
         <v/>
       </c>
       <c r="E19" t="str">
-        <v>ana</v>
+        <v>Diego Rafael Llanos Ramos</v>
       </c>
       <c r="F19" t="str">
         <v/>
@@ -2266,13 +2257,13 @@
         <v/>
       </c>
       <c r="C21" t="str">
-        <v/>
+        <v>3345214</v>
       </c>
       <c r="D21" t="str">
         <v/>
       </c>
       <c r="E21" t="str">
-        <v>Diego Rafael Llanos Ramos</v>
+        <v/>
       </c>
       <c r="F21" t="str">
         <v/>
@@ -2355,7 +2346,7 @@
         <v>3345214</v>
       </c>
       <c r="D22" t="str">
-        <v/>
+        <v>adqd</v>
       </c>
       <c r="E22" t="str">
         <v/>
@@ -2438,13 +2429,13 @@
         <v/>
       </c>
       <c r="C23" t="str">
-        <v>3345214</v>
+        <v>33</v>
       </c>
       <c r="D23" t="str">
-        <v>adqd</v>
+        <v>Vega</v>
       </c>
       <c r="E23" t="str">
-        <v/>
+        <v>rafa</v>
       </c>
       <c r="F23" t="str">
         <v/>
@@ -2524,13 +2515,13 @@
         <v/>
       </c>
       <c r="C24" t="str">
-        <v>33</v>
+        <v/>
       </c>
       <c r="D24" t="str">
-        <v>Vega</v>
+        <v/>
       </c>
       <c r="E24" t="str">
-        <v>rafa</v>
+        <v/>
       </c>
       <c r="F24" t="str">
         <v/>
@@ -2610,7 +2601,7 @@
         <v/>
       </c>
       <c r="C25" t="str">
-        <v/>
+        <v>47</v>
       </c>
       <c r="D25" t="str">
         <v/>
@@ -2696,7 +2687,7 @@
         <v/>
       </c>
       <c r="C26" t="str">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D26" t="str">
         <v/>
@@ -2782,13 +2773,13 @@
         <v/>
       </c>
       <c r="C27" t="str">
-        <v>33</v>
+        <v>32584529</v>
       </c>
       <c r="D27" t="str">
-        <v/>
+        <v>argañaraz</v>
       </c>
       <c r="E27" t="str">
-        <v/>
+        <v>javier</v>
       </c>
       <c r="F27" t="str">
         <v/>
@@ -2861,20 +2852,17 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="str">
-        <v/>
-      </c>
       <c r="B28" t="str">
         <v/>
       </c>
       <c r="C28" t="str">
-        <v>32584529</v>
+        <v>123</v>
       </c>
       <c r="D28" t="str">
-        <v>argañaraz</v>
+        <v/>
       </c>
       <c r="E28" t="str">
-        <v>javier</v>
+        <v/>
       </c>
       <c r="F28" t="str">
         <v/>
@@ -2951,13 +2939,13 @@
         <v/>
       </c>
       <c r="C29" t="str">
-        <v>123</v>
+        <v>333</v>
       </c>
       <c r="D29" t="str">
         <v/>
       </c>
       <c r="E29" t="str">
-        <v/>
+        <v>rafa</v>
       </c>
       <c r="F29" t="str">
         <v/>
@@ -2981,7 +2969,7 @@
         <v/>
       </c>
       <c r="M29" t="str">
-        <v/>
+        <v>4to</v>
       </c>
       <c r="N29" t="str">
         <v/>
@@ -3034,13 +3022,13 @@
         <v/>
       </c>
       <c r="C30" t="str">
-        <v>333</v>
+        <v>442</v>
       </c>
       <c r="D30" t="str">
-        <v/>
+        <v>qe</v>
       </c>
       <c r="E30" t="str">
-        <v>rafa</v>
+        <v>ff</v>
       </c>
       <c r="F30" t="str">
         <v/>
@@ -3064,7 +3052,7 @@
         <v/>
       </c>
       <c r="M30" t="str">
-        <v>4to</v>
+        <v/>
       </c>
       <c r="N30" t="str">
         <v/>
@@ -3117,13 +3105,13 @@
         <v/>
       </c>
       <c r="C31" t="str">
-        <v>442</v>
+        <v>3376</v>
       </c>
       <c r="D31" t="str">
-        <v>qe</v>
+        <v/>
       </c>
       <c r="E31" t="str">
-        <v>ff</v>
+        <v/>
       </c>
       <c r="F31" t="str">
         <v/>
@@ -3200,7 +3188,7 @@
         <v/>
       </c>
       <c r="C32" t="str">
-        <v>3376</v>
+        <v>gre</v>
       </c>
       <c r="D32" t="str">
         <v/>
@@ -3283,7 +3271,7 @@
         <v/>
       </c>
       <c r="C33" t="str">
-        <v>gre</v>
+        <v/>
       </c>
       <c r="D33" t="str">
         <v/>
@@ -3698,7 +3686,7 @@
         <v/>
       </c>
       <c r="C38" t="str">
-        <v/>
+        <v>42</v>
       </c>
       <c r="D38" t="str">
         <v/>
@@ -3781,7 +3769,7 @@
         <v/>
       </c>
       <c r="C39" t="str">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D39" t="str">
         <v/>
@@ -4276,16 +4264,16 @@
     </row>
     <row r="45">
       <c r="B45" t="str">
-        <v/>
+        <v>https://cdn.outsideonline.com/wp-content/uploads/2023/03/Funny_Dog_H.jpg?crop=16:9&amp;width=960&amp;enable=upscale&amp;quality=100</v>
       </c>
       <c r="C45" t="str">
-        <v>2</v>
+        <v>3825533188</v>
       </c>
       <c r="D45" t="str">
-        <v/>
+        <v>movil</v>
       </c>
       <c r="E45" t="str">
-        <v/>
+        <v>paqueta</v>
       </c>
       <c r="F45" t="str">
         <v/>
@@ -4359,16 +4347,16 @@
     </row>
     <row r="46">
       <c r="B46" t="str">
-        <v>https://cdn.outsideonline.com/wp-content/uploads/2023/03/Funny_Dog_H.jpg?crop=16:9&amp;width=960&amp;enable=upscale&amp;quality=100</v>
+        <v/>
       </c>
       <c r="C46" t="str">
-        <v>3825533188</v>
+        <v>31</v>
       </c>
       <c r="D46" t="str">
-        <v>movil</v>
+        <v>diego</v>
       </c>
       <c r="E46" t="str">
-        <v>paqueta</v>
+        <v/>
       </c>
       <c r="F46" t="str">
         <v/>
@@ -4445,10 +4433,10 @@
         <v/>
       </c>
       <c r="C47" t="str">
-        <v>31</v>
+        <v/>
       </c>
       <c r="D47" t="str">
-        <v>diego</v>
+        <v/>
       </c>
       <c r="E47" t="str">
         <v/>
@@ -4520,95 +4508,12 @@
         <v/>
       </c>
       <c r="AB47" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="str">
-        <v/>
-      </c>
-      <c r="C48" t="str">
-        <v/>
-      </c>
-      <c r="D48" t="str">
-        <v/>
-      </c>
-      <c r="E48" t="str">
-        <v/>
-      </c>
-      <c r="F48" t="str">
-        <v/>
-      </c>
-      <c r="G48" t="str">
-        <v/>
-      </c>
-      <c r="H48" t="str">
-        <v/>
-      </c>
-      <c r="I48" t="str">
-        <v/>
-      </c>
-      <c r="J48" t="str">
-        <v/>
-      </c>
-      <c r="K48" t="str">
-        <v/>
-      </c>
-      <c r="L48" t="str">
-        <v/>
-      </c>
-      <c r="M48" t="str">
-        <v/>
-      </c>
-      <c r="N48" t="str">
-        <v/>
-      </c>
-      <c r="O48" t="str">
-        <v/>
-      </c>
-      <c r="P48" t="str">
-        <v/>
-      </c>
-      <c r="Q48" t="str">
-        <v/>
-      </c>
-      <c r="R48" t="str">
-        <v/>
-      </c>
-      <c r="S48" t="str">
-        <v/>
-      </c>
-      <c r="T48" t="str">
-        <v/>
-      </c>
-      <c r="U48" t="str">
-        <v/>
-      </c>
-      <c r="V48" t="str">
-        <v/>
-      </c>
-      <c r="W48" t="str">
-        <v/>
-      </c>
-      <c r="X48" t="str">
-        <v/>
-      </c>
-      <c r="Y48" t="str">
-        <v/>
-      </c>
-      <c r="Z48" t="str">
-        <v/>
-      </c>
-      <c r="AA48" t="str">
-        <v/>
-      </c>
-      <c r="AB48" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE48"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE47"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/proyecto/back/excel/archivo.xlsx
+++ b/proyecto/back/excel/archivo.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE47"/>
+  <dimension ref="A1:AE48"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -4511,9 +4511,92 @@
         <v/>
       </c>
     </row>
+    <row r="48">
+      <c r="B48" t="str">
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <v>332r2r</v>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+      <c r="H48" t="str">
+        <v/>
+      </c>
+      <c r="I48" t="str">
+        <v/>
+      </c>
+      <c r="J48" t="str">
+        <v/>
+      </c>
+      <c r="K48" t="str">
+        <v/>
+      </c>
+      <c r="L48" t="str">
+        <v/>
+      </c>
+      <c r="M48" t="str">
+        <v/>
+      </c>
+      <c r="N48" t="str">
+        <v/>
+      </c>
+      <c r="O48" t="str">
+        <v/>
+      </c>
+      <c r="P48" t="str">
+        <v/>
+      </c>
+      <c r="Q48" t="str">
+        <v/>
+      </c>
+      <c r="R48" t="str">
+        <v/>
+      </c>
+      <c r="S48" t="str">
+        <v/>
+      </c>
+      <c r="T48" t="str">
+        <v/>
+      </c>
+      <c r="U48" t="str">
+        <v/>
+      </c>
+      <c r="V48" t="str">
+        <v/>
+      </c>
+      <c r="W48" t="str">
+        <v/>
+      </c>
+      <c r="X48" t="str">
+        <v/>
+      </c>
+      <c r="Y48" t="str">
+        <v/>
+      </c>
+      <c r="Z48" t="str">
+        <v/>
+      </c>
+      <c r="AA48" t="str">
+        <v/>
+      </c>
+      <c r="AB48" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE47"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE48"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/proyecto/back/excel/archivo.xlsx
+++ b/proyecto/back/excel/archivo.xlsx
@@ -690,7 +690,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v/>
+        <v>fwf</v>
       </c>
       <c r="B4" t="str">
         <v/>
